--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_EVE.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 01/26/21 5:27:07 PM</t>
+    <t>Printed on: 02/10/21 4:46:49 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -123,7 +123,7 @@
     <t>Change in EVE ratio</t>
   </si>
   <si>
-    <t>134 BP</t>
+    <t>135 BP</t>
   </si>
   <si>
     <t/>
@@ -3343,7 +3343,7 @@
         <c:axId val="87618306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="113000"/>
+          <c:min val="112000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4878,19 +4878,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="253">
-        <v>22841.565875951044</v>
+        <v>22607.140233532125</v>
       </c>
       <c r="F10" s="249">
-        <v>-178.35709512996255</v>
+        <v>-170.93717077429028</v>
       </c>
       <c r="G10" s="249">
-        <v>-0.77479449151078961</v>
+        <v>-0.75044600007361884</v>
       </c>
       <c r="H10" s="249">
-        <v>16.531729781956845</v>
+        <v>16.389870932404925</v>
       </c>
       <c r="I10" s="249">
-        <v>-19.142595461463952</v>
+        <v>-18.671636903838298</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4898,19 +4898,19 @@
         <v>16</v>
       </c>
       <c r="E11" s="253">
-        <v>22877.852784559469</v>
+        <v>22643.433306137751</v>
       </c>
       <c r="F11" s="249">
-        <v>-142.07018652153784</v>
+        <v>-134.64409816866464</v>
       </c>
       <c r="G11" s="249">
-        <v>-0.61716186757016878</v>
+        <v>-0.59111265529025236</v>
       </c>
       <c r="H11" s="249">
-        <v>16.558300582594494</v>
+        <v>16.416487985124473</v>
       </c>
       <c r="I11" s="249">
-        <v>-16.485515397698958</v>
+        <v>-16.009931631883525</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4918,19 +4918,19 @@
         <v>17</v>
       </c>
       <c r="E12" s="253">
-        <v>23063.006039018317</v>
+        <v>22825.521061769981</v>
       </c>
       <c r="F12" s="249">
-        <v>43.083067937310261</v>
+        <v>47.443657463565614</v>
       </c>
       <c r="G12" s="249">
-        <v>0.18715556951008813</v>
+        <v>0.20828648801850122</v>
       </c>
       <c r="H12" s="249">
-        <v>16.690272599632731</v>
+        <v>16.54684708763682</v>
       </c>
       <c r="I12" s="249">
-        <v>-3.2883136938752786</v>
+        <v>-2.9740213806487859</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -4938,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="265">
-        <v>23019.922971081007</v>
+        <v>22778.077404306416</v>
       </c>
       <c r="F13" s="266">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="266">
-        <v>16.723155736571485</v>
+        <v>16.576587301443308</v>
       </c>
       <c r="I13" s="266">
         <v>0</v>
@@ -4958,19 +4958,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="253">
-        <v>22459.160311119162</v>
+        <v>22215.400525888494</v>
       </c>
       <c r="F14" s="249">
-        <v>-560.7626599618452</v>
+        <v>-562.67687841792213</v>
       </c>
       <c r="G14" s="249">
-        <v>-2.4359884290938267</v>
+        <v>-2.4702562399385939</v>
       </c>
       <c r="H14" s="249">
-        <v>16.472208922437432</v>
+        <v>16.322609984243222</v>
       </c>
       <c r="I14" s="249">
-        <v>-25.094681413405251</v>
+        <v>-25.397731720008597</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -4978,19 +4978,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="253">
-        <v>21803.986064311153</v>
+        <v>21559.921414412103</v>
       </c>
       <c r="F15" s="249">
-        <v>-1215.9369067698535</v>
+        <v>-1218.1559898943124</v>
       </c>
       <c r="G15" s="249">
-        <v>-5.2821067572527749</v>
+        <v>-5.3479315583676446</v>
       </c>
       <c r="H15" s="249">
-        <v>16.155297131715592</v>
+        <v>16.003401377224421</v>
       </c>
       <c r="I15" s="249">
-        <v>-56.785860485589183</v>
+        <v>-57.318592421888717</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -4998,19 +4998,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="253">
-        <v>20323.780217426116</v>
+        <v>20082.120876905767</v>
       </c>
       <c r="F16" s="249">
-        <v>-2696.1427536548908</v>
+        <v>-2695.9565274006491</v>
       </c>
       <c r="G16" s="249">
-        <v>-11.712214489344492</v>
+        <v>-11.835751014222792</v>
       </c>
       <c r="H16" s="249">
-        <v>15.386611689365322</v>
+        <v>15.23152430779037</v>
       </c>
       <c r="I16" s="249">
-        <v>-133.65440472061616</v>
+        <v>-134.50629936529387</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -5018,19 +5018,19 @@
         <v>22</v>
       </c>
       <c r="E17" s="253">
-        <v>19029.922828214036</v>
+        <v>18741.902354677492</v>
       </c>
       <c r="F17" s="249">
-        <v>-3990.0001428669711</v>
+        <v>-4036.1750496289242</v>
       </c>
       <c r="G17" s="249">
-        <v>-17.332812746069767</v>
+        <v>-17.719559811776943</v>
       </c>
       <c r="H17" s="249">
-        <v>14.699036023548173</v>
+        <v>14.508842210257084</v>
       </c>
       <c r="I17" s="249">
-        <v>-202.41197130233113</v>
+        <v>-206.77450911862238</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -5038,19 +5038,19 @@
         <v>23</v>
       </c>
       <c r="E18" s="253">
-        <v>16543.573965141983</v>
+        <v>16221.476392997469</v>
       </c>
       <c r="F18" s="249">
-        <v>-6476.3490059390242</v>
+        <v>-6556.6010113089469</v>
       </c>
       <c r="G18" s="249">
-        <v>-28.13366931798598</v>
+        <v>-28.78469896703994</v>
       </c>
       <c r="H18" s="249">
-        <v>13.160394092906108</v>
+        <v>12.937314899524981</v>
       </c>
       <c r="I18" s="249">
-        <v>-356.27616436653761</v>
+        <v>-363.92724019183265</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -5058,19 +5058,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="253">
-        <v>20151.655359318433</v>
+        <v>19911.029518112147</v>
       </c>
       <c r="F19" s="249">
-        <v>-2868.2676117625742</v>
+        <v>-2867.0478861942684</v>
       </c>
       <c r="G19" s="249">
-        <v>-12.459935749419589</v>
+        <v>-12.586873928403744</v>
       </c>
       <c r="H19" s="249">
-        <v>15.318448828574713</v>
+        <v>15.163270794865014</v>
       </c>
       <c r="I19" s="249">
-        <v>-140.4706907996771</v>
+        <v>-141.33165065782944</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -5103,7 +5103,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="267">
-        <v>0.16723155736571485</v>
+        <v>0.16576587301443307</v>
       </c>
       <c r="F22" s="254" t="s">
         <v>27</v>
@@ -5115,7 +5115,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="267">
-        <v>0.15386611689365323</v>
+        <v>0.1523152430779037</v>
       </c>
       <c r="F23" s="254" t="s">
         <v>29</v>
@@ -5139,7 +5139,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="268">
-        <v>4.3427536664583837</v>
+        <v>4.412869545562307</v>
       </c>
       <c r="F25" s="254" t="s">
         <v>34</v>
@@ -5159,52 +5159,52 @@
     </row>
     <row r="29" ht="9.95" customHeight="1">
       <c r="H29" s="249">
-        <v>138168.03309282806</v>
+        <v>137933.60745040915</v>
       </c>
     </row>
     <row r="30" ht="9.95" customHeight="1">
       <c r="H30" s="249">
-        <v>138165.46372281626</v>
+        <v>137931.04424439455</v>
       </c>
     </row>
     <row r="31" ht="9.95" customHeight="1">
       <c r="H31" s="249">
-        <v>138182.32087788559</v>
+        <v>137944.83590063723</v>
       </c>
     </row>
     <row r="32" ht="9.95" customHeight="1">
       <c r="H32" s="249">
-        <v>137652.98448270303</v>
+        <v>137411.13891592843</v>
       </c>
     </row>
     <row r="33" ht="9.95" customHeight="1">
       <c r="H33" s="249">
-        <v>136345.77133444848</v>
+        <v>136102.01154921783</v>
       </c>
     </row>
     <row r="34" ht="9.95" customHeight="1">
       <c r="H34" s="249">
-        <v>134964.9337089952</v>
+        <v>134720.86905909615</v>
       </c>
     </row>
     <row r="35" ht="9.95" customHeight="1">
       <c r="H35" s="249">
-        <v>132087.43177338509</v>
+        <v>131845.77243286473</v>
       </c>
     </row>
     <row r="36" ht="9.95" customHeight="1">
       <c r="H36" s="249">
-        <v>129463.7471309526</v>
+        <v>129175.72665741605</v>
       </c>
     </row>
     <row r="37" ht="9.95" customHeight="1">
       <c r="H37" s="249">
-        <v>125707.28390314331</v>
+        <v>125385.18633099881</v>
       </c>
     </row>
     <row r="38" ht="9.95" customHeight="1">
       <c r="H38" s="249">
-        <v>131551.54013850252</v>
+        <v>131310.91429729623</v>
       </c>
     </row>
     <row r="39" ht="9.95" customHeight="1">
@@ -5405,37 +5405,37 @@
         <v>4.789609153372977</v>
       </c>
       <c r="C7" s="276">
-        <v>15.849418206707734</v>
+        <v>15.838466803559205</v>
       </c>
       <c r="D7" s="277">
-        <v>138168.03309282806</v>
+        <v>137933.60745040915</v>
       </c>
       <c r="E7" s="277">
-        <v>138165.46372281626</v>
+        <v>137931.04424439455</v>
       </c>
       <c r="F7" s="277">
-        <v>138182.32087788559</v>
+        <v>137944.83590063723</v>
       </c>
       <c r="G7" s="278">
-        <v>137652.98448270303</v>
+        <v>137411.13891592843</v>
       </c>
       <c r="H7" s="277">
-        <v>136345.77133444848</v>
+        <v>136102.01154921783</v>
       </c>
       <c r="I7" s="277">
-        <v>134964.9337089952</v>
+        <v>134720.86905909615</v>
       </c>
       <c r="J7" s="277">
-        <v>132087.43177338509</v>
+        <v>131845.77243286473</v>
       </c>
       <c r="K7" s="277">
-        <v>129463.7471309526</v>
+        <v>129175.72665741605</v>
       </c>
       <c r="L7" s="277">
-        <v>125707.28390314331</v>
+        <v>125385.18633099881</v>
       </c>
       <c r="M7" s="277">
-        <v>131551.54013850252</v>
+        <v>131310.91429729623</v>
       </c>
       <c r="N7" s="277">
         <v>126904.00000000003</v>
@@ -5444,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="275">
-        <v>108.47016995737171</v>
+        <v>108.27959632157253</v>
       </c>
       <c r="Q7" s="275">
-        <v>1.8326827288723522</v>
+        <v>1.8398877880891247</v>
       </c>
       <c r="R7" s="275">
-        <v>-0.31301880051647413</v>
+        <v>-0.31101699295647867</v>
       </c>
     </row>
     <row r="8">
@@ -5461,37 +5461,37 @@
         <v>4.789609153372977</v>
       </c>
       <c r="C8" s="276">
-        <v>15.849418206707734</v>
+        <v>15.838466803559205</v>
       </c>
       <c r="D8" s="277">
-        <v>138168.03309282806</v>
+        <v>137933.60745040915</v>
       </c>
       <c r="E8" s="277">
-        <v>138165.46372281626</v>
+        <v>137931.04424439455</v>
       </c>
       <c r="F8" s="277">
-        <v>138182.32087788559</v>
+        <v>137944.83590063723</v>
       </c>
       <c r="G8" s="278">
-        <v>137652.98448270303</v>
+        <v>137411.13891592843</v>
       </c>
       <c r="H8" s="277">
-        <v>136345.77133444848</v>
+        <v>136102.01154921783</v>
       </c>
       <c r="I8" s="277">
-        <v>134964.9337089952</v>
+        <v>134720.86905909615</v>
       </c>
       <c r="J8" s="277">
-        <v>132087.43177338509</v>
+        <v>131845.77243286473</v>
       </c>
       <c r="K8" s="277">
-        <v>129463.7471309526</v>
+        <v>129175.72665741605</v>
       </c>
       <c r="L8" s="277">
-        <v>125707.28390314331</v>
+        <v>125385.18633099881</v>
       </c>
       <c r="M8" s="277">
-        <v>131551.54013850252</v>
+        <v>131310.91429729623</v>
       </c>
       <c r="N8" s="277">
         <v>126904.00000000003</v>
@@ -5500,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="275">
-        <v>108.47016995737171</v>
+        <v>108.27959632157253</v>
       </c>
       <c r="Q8" s="275">
-        <v>1.8326827288723522</v>
+        <v>1.8398877880891247</v>
       </c>
       <c r="R8" s="275">
-        <v>-0.31301880051647413</v>
+        <v>-0.31101699295647867</v>
       </c>
     </row>
     <row r="9">
@@ -5573,37 +5573,37 @@
         <v>37.888066832634657</v>
       </c>
       <c r="C10" s="281">
-        <v>12.19438740588638</v>
+        <v>12.180698151950717</v>
       </c>
       <c r="D10" s="282">
-        <v>22841.565875951044</v>
+        <v>22607.140233532125</v>
       </c>
       <c r="E10" s="282">
-        <v>22877.852784559469</v>
+        <v>22643.433306137751</v>
       </c>
       <c r="F10" s="282">
-        <v>23063.006039018317</v>
+        <v>22825.521061769981</v>
       </c>
       <c r="G10" s="283">
-        <v>23019.922971081007</v>
+        <v>22778.077404306416</v>
       </c>
       <c r="H10" s="282">
-        <v>22459.160311119162</v>
+        <v>22215.400525888494</v>
       </c>
       <c r="I10" s="282">
-        <v>21803.986064311153</v>
+        <v>21559.921414412103</v>
       </c>
       <c r="J10" s="282">
-        <v>20323.780217426116</v>
+        <v>20082.120876905767</v>
       </c>
       <c r="K10" s="282">
-        <v>19029.922828214036</v>
+        <v>18741.902354677492</v>
       </c>
       <c r="L10" s="282">
-        <v>16543.573965141983</v>
+        <v>16221.476392997469</v>
       </c>
       <c r="M10" s="282">
-        <v>20151.655359318433</v>
+        <v>19911.029518112147</v>
       </c>
       <c r="N10" s="282">
         <v>13646.000000000029</v>
@@ -5612,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="280">
-        <v>168.69355834003341</v>
+        <v>166.92127659611876</v>
       </c>
       <c r="Q10" s="280">
-        <v>4.3427536664583837</v>
+        <v>4.412869545562307</v>
       </c>
       <c r="R10" s="280">
-        <v>-2.6870877536948519</v>
+        <v>-2.7002182470834017</v>
       </c>
     </row>
     <row r="12">
@@ -6043,37 +6043,37 @@
         <v>2.5551503925899</v>
       </c>
       <c r="C20" s="242">
-        <v>23.783709787816566</v>
+        <v>23.775496235455169</v>
       </c>
       <c r="D20" s="241">
-        <v>1346.0264884732458</v>
+        <v>1343.1640032386458</v>
       </c>
       <c r="E20" s="241">
-        <v>1344.2742186891442</v>
+        <v>1341.4111815877507</v>
       </c>
       <c r="F20" s="241">
-        <v>1332.3160655139843</v>
+        <v>1329.3604130237939</v>
       </c>
       <c r="G20" s="273">
-        <v>1302.1483728592907</v>
+        <v>1299.1592036728609</v>
       </c>
       <c r="H20" s="241">
-        <v>1263.257272568198</v>
+        <v>1260.3078183035098</v>
       </c>
       <c r="I20" s="241">
-        <v>1223.7738336705552</v>
+        <v>1220.8993844904949</v>
       </c>
       <c r="J20" s="241">
-        <v>1146.6602894409996</v>
+        <v>1143.9681417937732</v>
       </c>
       <c r="K20" s="241">
-        <v>1074.3845827285461</v>
+        <v>1071.9066035835983</v>
       </c>
       <c r="L20" s="241">
-        <v>1008.2480691557072</v>
+        <v>1005.9822181421386</v>
       </c>
       <c r="M20" s="241">
-        <v>1192.8310128914604</v>
+        <v>1189.9896268494881</v>
       </c>
       <c r="N20" s="241">
         <v>1237</v>
@@ -6082,13 +6082,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="242">
-        <v>105.26664291505988</v>
+        <v>105.02499625487963</v>
       </c>
       <c r="Q20" s="242">
-        <v>5.837415129651669</v>
+        <v>5.8488021685474019</v>
       </c>
       <c r="R20" s="242">
-        <v>-0.82536530751943038</v>
+        <v>-0.80837347511402213</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
@@ -6099,37 +6099,37 @@
         <v>2.5551503925899</v>
       </c>
       <c r="C21" s="286">
-        <v>23.783709787816566</v>
+        <v>23.775496235455169</v>
       </c>
       <c r="D21" s="287">
-        <v>1346.0264884732458</v>
+        <v>1343.1640032386458</v>
       </c>
       <c r="E21" s="287">
-        <v>1344.2742186891442</v>
+        <v>1341.4111815877507</v>
       </c>
       <c r="F21" s="287">
-        <v>1332.3160655139843</v>
+        <v>1329.3604130237939</v>
       </c>
       <c r="G21" s="288">
-        <v>1302.1483728592907</v>
+        <v>1299.1592036728609</v>
       </c>
       <c r="H21" s="287">
-        <v>1263.257272568198</v>
+        <v>1260.3078183035098</v>
       </c>
       <c r="I21" s="287">
-        <v>1223.7738336705552</v>
+        <v>1220.8993844904949</v>
       </c>
       <c r="J21" s="287">
-        <v>1146.6602894409996</v>
+        <v>1143.9681417937732</v>
       </c>
       <c r="K21" s="287">
-        <v>1074.3845827285461</v>
+        <v>1071.9066035835983</v>
       </c>
       <c r="L21" s="287">
-        <v>1008.2480691557072</v>
+        <v>1005.9822181421386</v>
       </c>
       <c r="M21" s="287">
-        <v>1192.8310128914604</v>
+        <v>1189.9896268494881</v>
       </c>
       <c r="N21" s="287">
         <v>1237</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="286">
-        <v>105.26664291505988</v>
+        <v>105.02499625487963</v>
       </c>
       <c r="Q21" s="286">
-        <v>5.837415129651669</v>
+        <v>5.8488021685474019</v>
       </c>
       <c r="R21" s="286">
-        <v>-0.82536530751943038</v>
+        <v>-0.80837347511402213</v>
       </c>
     </row>
     <row r="22" outlineLevel="2">
@@ -6267,37 +6267,37 @@
         <v>2.3874488404001406</v>
       </c>
       <c r="C24" s="286">
-        <v>20.416153319644078</v>
+        <v>20.40520191649555</v>
       </c>
       <c r="D24" s="287">
-        <v>1580.5665944939149</v>
+        <v>1577.7041092593149</v>
       </c>
       <c r="E24" s="287">
-        <v>1578.814324709813</v>
+        <v>1575.9512876084195</v>
       </c>
       <c r="F24" s="287">
-        <v>1566.8561715346532</v>
+        <v>1563.9005190444627</v>
       </c>
       <c r="G24" s="288">
-        <v>1535.7005632001187</v>
+        <v>1532.711394013689</v>
       </c>
       <c r="H24" s="287">
-        <v>1494.738935725245</v>
+        <v>1491.7894814605568</v>
       </c>
       <c r="I24" s="287">
-        <v>1453.2259746883451</v>
+        <v>1450.3515255082848</v>
       </c>
       <c r="J24" s="287">
-        <v>1372.1724373505326</v>
+        <v>1369.480289703306</v>
       </c>
       <c r="K24" s="287">
-        <v>1296.1091387970932</v>
+        <v>1293.6311596521452</v>
       </c>
       <c r="L24" s="287">
-        <v>1226.3301977566985</v>
+        <v>1224.0643467431296</v>
       </c>
       <c r="M24" s="287">
-        <v>1416.6837235108853</v>
+        <v>1413.842337468913</v>
       </c>
       <c r="N24" s="287">
         <v>1466</v>
@@ -6306,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="286">
-        <v>104.75447225103129</v>
+        <v>104.55057257937851</v>
       </c>
       <c r="Q24" s="286">
-        <v>5.2210197723533858</v>
+        <v>5.22946954732463</v>
       </c>
       <c r="R24" s="286">
-        <v>-0.70885838930245848</v>
+        <v>-0.69422852849874039</v>
       </c>
     </row>
     <row r="25" outlineLevel="1">
@@ -6323,37 +6323,37 @@
         <v>1.5139900344779045</v>
       </c>
       <c r="C25" s="286">
-        <v>7.1321013004791238</v>
+        <v>7.1211498973305956</v>
       </c>
       <c r="D25" s="287">
-        <v>5413.3152529871641</v>
+        <v>5410.452767752563</v>
       </c>
       <c r="E25" s="287">
-        <v>5411.5629832030609</v>
+        <v>5408.6999461016685</v>
       </c>
       <c r="F25" s="287">
-        <v>5399.6048300279026</v>
+        <v>5396.6491775377117</v>
       </c>
       <c r="G25" s="288">
-        <v>5352.1903110892581</v>
+        <v>5349.2011419028286</v>
       </c>
       <c r="H25" s="287">
-        <v>5277.25625258321</v>
+        <v>5274.3067983185219</v>
       </c>
       <c r="I25" s="287">
-        <v>5202.4458273121973</v>
+        <v>5199.5713781321374</v>
       </c>
       <c r="J25" s="287">
-        <v>5056.7568515375888</v>
+        <v>5054.0647038903635</v>
       </c>
       <c r="K25" s="287">
-        <v>4918.5662646136125</v>
+        <v>4916.0882854686661</v>
       </c>
       <c r="L25" s="287">
-        <v>4789.0487908254809</v>
+        <v>4786.7829398119111</v>
       </c>
       <c r="M25" s="287">
-        <v>5074.1784051074274</v>
+        <v>5071.3370190654559</v>
       </c>
       <c r="N25" s="287">
         <v>5218</v>
@@ -6362,13 +6362,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="286">
-        <v>102.57168093310192</v>
+        <v>102.51439520703006</v>
       </c>
       <c r="Q25" s="286">
-        <v>2.7756902230304914</v>
+        <v>2.7767448781998256</v>
       </c>
       <c r="R25" s="286">
-        <v>-0.24520885018032257</v>
+        <v>-0.24075785261565658</v>
       </c>
     </row>
     <row r="26" outlineLevel="2">
@@ -6382,34 +6382,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D26" s="241">
-        <v>2947.0010709091</v>
+        <v>2940.9135511268851</v>
       </c>
       <c r="E26" s="241">
-        <v>2947.0010709091</v>
+        <v>2940.9135511268851</v>
       </c>
       <c r="F26" s="241">
-        <v>2947.0010709091</v>
+        <v>2940.9135511268851</v>
       </c>
       <c r="G26" s="273">
-        <v>2933.8432663147173</v>
+        <v>2927.7695119141667</v>
       </c>
       <c r="H26" s="241">
-        <v>2894.6810953952654</v>
+        <v>2888.6577525918287</v>
       </c>
       <c r="I26" s="241">
-        <v>2856.1696686411074</v>
+        <v>2850.1960904891234</v>
       </c>
       <c r="J26" s="241">
-        <v>2781.0492758260266</v>
+        <v>2775.1733280979006</v>
       </c>
       <c r="K26" s="241">
-        <v>2708.3852205057228</v>
+        <v>2702.6044392836952</v>
       </c>
       <c r="L26" s="241">
-        <v>2638.0847743900431</v>
+        <v>2632.3967745473951</v>
       </c>
       <c r="M26" s="241">
-        <v>2738.7279948569239</v>
+        <v>2732.9234786025504</v>
       </c>
       <c r="N26" s="241">
         <v>2670</v>
@@ -6418,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="242">
-        <v>109.88177027395945</v>
+        <v>109.65428883573658</v>
       </c>
       <c r="Q26" s="242">
-        <v>2.6723749857515955</v>
+        <v>2.6744656722210918</v>
       </c>
       <c r="R26" s="242">
-        <v>0.070383706475574057</v>
+        <v>0.070689332664786289</v>
       </c>
     </row>
     <row r="27" outlineLevel="2">
@@ -6438,34 +6438,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D27" s="241">
-        <v>1986.7422949949055</v>
+        <v>1982.638349074304</v>
       </c>
       <c r="E27" s="241">
-        <v>1986.7422949949055</v>
+        <v>1982.638349074304</v>
       </c>
       <c r="F27" s="241">
-        <v>1986.7422949949055</v>
+        <v>1982.638349074304</v>
       </c>
       <c r="G27" s="273">
-        <v>1977.8718649312702</v>
+        <v>1973.777199043257</v>
       </c>
       <c r="H27" s="241">
-        <v>1951.4704013900769</v>
+        <v>1947.4097208484257</v>
       </c>
       <c r="I27" s="241">
-        <v>1925.5076417805285</v>
+        <v>1921.4805104421066</v>
       </c>
       <c r="J27" s="241">
-        <v>1874.8646803321626</v>
+        <v>1870.9033672570154</v>
       </c>
       <c r="K27" s="241">
-        <v>1825.877676745434</v>
+        <v>1821.9805208654134</v>
       </c>
       <c r="L27" s="241">
-        <v>1778.4841175663248</v>
+        <v>1774.6495109308348</v>
       </c>
       <c r="M27" s="241">
-        <v>1846.3334796788236</v>
+        <v>1842.4203226534048</v>
       </c>
       <c r="N27" s="241">
         <v>1800</v>
@@ -6474,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="242">
-        <v>109.88177027395946</v>
+        <v>109.65428883573651</v>
       </c>
       <c r="Q27" s="242">
-        <v>2.6723749857495305</v>
+        <v>2.6744656722216806</v>
       </c>
       <c r="R27" s="242">
-        <v>0.070383706482639488</v>
+        <v>0.070689332699979748</v>
       </c>
     </row>
     <row r="28" outlineLevel="2">
@@ -6494,34 +6494,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D28" s="287">
-        <v>4933.7433659040053</v>
+        <v>4923.55190020119</v>
       </c>
       <c r="E28" s="287">
-        <v>4933.7433659040053</v>
+        <v>4923.55190020119</v>
       </c>
       <c r="F28" s="287">
-        <v>4933.7433659040053</v>
+        <v>4923.55190020119</v>
       </c>
       <c r="G28" s="288">
-        <v>4911.7151312459873</v>
+        <v>4901.5467109574238</v>
       </c>
       <c r="H28" s="287">
-        <v>4846.1514967853427</v>
+        <v>4836.0674734402537</v>
       </c>
       <c r="I28" s="287">
-        <v>4781.6773104216354</v>
+        <v>4771.67660093123</v>
       </c>
       <c r="J28" s="287">
-        <v>4655.9139561581887</v>
+        <v>4646.0766953549155</v>
       </c>
       <c r="K28" s="287">
-        <v>4534.2628972511575</v>
+        <v>4524.5849601491082</v>
       </c>
       <c r="L28" s="287">
-        <v>4416.5688919563681</v>
+        <v>4407.04628547823</v>
       </c>
       <c r="M28" s="287">
-        <v>4585.061474535747</v>
+        <v>4575.3438012559554</v>
       </c>
       <c r="N28" s="287">
         <v>4470</v>
@@ -6530,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="286">
-        <v>109.88177027395945</v>
+        <v>109.65428883573655</v>
       </c>
       <c r="Q28" s="286">
-        <v>2.6723749857507411</v>
+        <v>2.6744656722213982</v>
       </c>
       <c r="R28" s="286">
-        <v>0.070383706479807961</v>
+        <v>0.070689332678494268</v>
       </c>
     </row>
     <row r="29" outlineLevel="2">
@@ -6550,34 +6550,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D29" s="241">
-        <v>6390.9702529841479</v>
+        <v>6385.203795817697</v>
       </c>
       <c r="E29" s="241">
-        <v>6390.9702529841479</v>
+        <v>6385.203795817697</v>
       </c>
       <c r="F29" s="241">
-        <v>6390.9702529841479</v>
+        <v>6385.203795817697</v>
       </c>
       <c r="G29" s="273">
-        <v>6378.3676445405672</v>
+        <v>6372.6182918184195</v>
       </c>
       <c r="H29" s="241">
-        <v>6330.9644380210493</v>
+        <v>6325.2749296144766</v>
       </c>
       <c r="I29" s="241">
-        <v>6284.1439578036052</v>
+        <v>6278.5134662389864</v>
       </c>
       <c r="J29" s="241">
-        <v>6192.214705058349</v>
+        <v>6186.6998200593362</v>
       </c>
       <c r="K29" s="241">
-        <v>6102.5086368436041</v>
+        <v>6097.1062117435758</v>
       </c>
       <c r="L29" s="241">
-        <v>6014.9571317938153</v>
+        <v>6009.6641236953183</v>
       </c>
       <c r="M29" s="241">
-        <v>6122.8884834549717</v>
+        <v>6117.4535251828711</v>
       </c>
       <c r="N29" s="241">
         <v>6115</v>
@@ -6586,13 +6586,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="242">
-        <v>104.30691160327991</v>
+        <v>104.21289111722682</v>
       </c>
       <c r="Q29" s="242">
-        <v>1.4862266935810387</v>
+        <v>1.485680780884902</v>
       </c>
       <c r="R29" s="242">
-        <v>-0.074736840704261481</v>
+        <v>-0.0748353980355793</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
@@ -6606,34 +6606,34 @@
         <v>9.9986310746064344</v>
       </c>
       <c r="D30" s="241">
-        <v>2101.2791814180682</v>
+        <v>2097.5897016749941</v>
       </c>
       <c r="E30" s="241">
-        <v>2101.2791814180682</v>
+        <v>2097.5897016749941</v>
       </c>
       <c r="F30" s="241">
-        <v>2101.0517029903385</v>
+        <v>2097.3396796938746</v>
       </c>
       <c r="G30" s="273">
-        <v>2097.9177789926507</v>
+        <v>2094.0871580145531</v>
       </c>
       <c r="H30" s="241">
-        <v>2089.1339568817943</v>
+        <v>2085.13627217764</v>
       </c>
       <c r="I30" s="241">
-        <v>2080.4086373490704</v>
+        <v>2076.2484246466647</v>
       </c>
       <c r="J30" s="241">
-        <v>2063.1318194283376</v>
+        <v>2058.6598393028403</v>
       </c>
       <c r="K30" s="241">
-        <v>2046.0839864911177</v>
+        <v>2041.3174309159963</v>
       </c>
       <c r="L30" s="241">
-        <v>2029.261852162517</v>
+        <v>2024.2172891680878</v>
       </c>
       <c r="M30" s="241">
-        <v>2051.5621042480925</v>
+        <v>2047.0687983579826</v>
       </c>
       <c r="N30" s="241">
         <v>1939</v>
@@ -6642,13 +6642,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="242">
-        <v>108.19586276393248</v>
+        <v>107.99830624108061</v>
       </c>
       <c r="Q30" s="242">
-        <v>0.81704364726012035</v>
+        <v>0.83470454511179437</v>
       </c>
       <c r="R30" s="242">
-        <v>-0.11156640157806393</v>
+        <v>-0.11063252845605096</v>
       </c>
     </row>
     <row r="31" outlineLevel="2">
@@ -6662,34 +6662,34 @@
         <v>29.998631074606433</v>
       </c>
       <c r="D31" s="241">
-        <v>65015.483184850287</v>
+        <v>64863.136986247</v>
       </c>
       <c r="E31" s="241">
-        <v>65014.666084622586</v>
+        <v>64862.326601883316</v>
       </c>
       <c r="F31" s="241">
-        <v>65043.791228105656</v>
+        <v>64888.509567201632</v>
       </c>
       <c r="G31" s="273">
-        <v>64729.778403904216</v>
+        <v>64570.0672768656</v>
       </c>
       <c r="H31" s="241">
-        <v>63958.402082779408</v>
+        <v>63796.176141844138</v>
       </c>
       <c r="I31" s="241">
-        <v>63106.030978203875</v>
+        <v>62942.87019964635</v>
       </c>
       <c r="J31" s="241">
-        <v>61260.365522027263</v>
+        <v>61098.335076139083</v>
       </c>
       <c r="K31" s="241">
-        <v>59633.724925311726</v>
+        <v>59424.048764449595</v>
       </c>
       <c r="L31" s="241">
-        <v>56839.404499190343</v>
+        <v>56594.390114087611</v>
       </c>
       <c r="M31" s="241">
-        <v>61232.051618317484</v>
+        <v>61070.288209764054</v>
       </c>
       <c r="N31" s="241">
         <v>57801</v>
@@ -6698,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="242">
-        <v>111.98729849640009</v>
+        <v>111.71098644809882</v>
       </c>
       <c r="Q31" s="242">
-        <v>2.2467265407674395</v>
+        <v>2.2625301659271142</v>
       </c>
       <c r="R31" s="242">
-        <v>-0.591254880810227</v>
+        <v>-0.58771468811121574</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
@@ -6718,34 +6718,34 @@
         <v>9.9986310746064344</v>
       </c>
       <c r="D32" s="241">
-        <v>760.75192643397884</v>
+        <v>759.41617873947871</v>
       </c>
       <c r="E32" s="241">
-        <v>760.75192643397884</v>
+        <v>759.41617873947871</v>
       </c>
       <c r="F32" s="241">
-        <v>760.66956962311724</v>
+        <v>759.32566020892091</v>
       </c>
       <c r="G32" s="273">
-        <v>759.5349566028093</v>
+        <v>758.148109812388</v>
       </c>
       <c r="H32" s="241">
-        <v>756.35484153224525</v>
+        <v>754.90751060789466</v>
       </c>
       <c r="I32" s="241">
-        <v>753.19590686903041</v>
+        <v>751.68973393603039</v>
       </c>
       <c r="J32" s="241">
-        <v>746.940968147859</v>
+        <v>745.32192222310232</v>
       </c>
       <c r="K32" s="241">
-        <v>740.768931674454</v>
+        <v>739.04323697938571</v>
       </c>
       <c r="L32" s="241">
-        <v>734.67860764213128</v>
+        <v>732.85226250438234</v>
       </c>
       <c r="M32" s="241">
-        <v>742.75224197120315</v>
+        <v>741.12547521779686</v>
       </c>
       <c r="N32" s="241">
         <v>702</v>
@@ -6754,13 +6754,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="242">
-        <v>108.19586276393295</v>
+        <v>107.99830624108091</v>
       </c>
       <c r="Q32" s="242">
-        <v>0.81704364725972267</v>
+        <v>0.83470454511139691</v>
       </c>
       <c r="R32" s="242">
-        <v>-0.11156640160587032</v>
+        <v>-0.11063252851533363</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
@@ -6774,34 +6774,34 @@
         <v>29.765913757700204</v>
       </c>
       <c r="D33" s="287">
-        <v>65776.235111284273</v>
+        <v>65622.553164986486</v>
       </c>
       <c r="E33" s="287">
-        <v>65775.418011056565</v>
+        <v>65621.7427806228</v>
       </c>
       <c r="F33" s="287">
-        <v>65804.460797728781</v>
+        <v>65647.835227410542</v>
       </c>
       <c r="G33" s="288">
-        <v>65489.313360507018</v>
+        <v>65328.215386677992</v>
       </c>
       <c r="H33" s="287">
-        <v>64714.756924311652</v>
+        <v>64551.083652452035</v>
       </c>
       <c r="I33" s="287">
-        <v>63859.2268850729</v>
+        <v>63694.559933582372</v>
       </c>
       <c r="J33" s="287">
-        <v>62007.30649017512</v>
+        <v>61843.656998362188</v>
       </c>
       <c r="K33" s="287">
-        <v>60374.493856986184</v>
+        <v>60163.092001428973</v>
       </c>
       <c r="L33" s="287">
-        <v>57574.083106832477</v>
+        <v>57327.242376591988</v>
       </c>
       <c r="M33" s="287">
-        <v>61974.803860288688</v>
+        <v>61811.413684981853</v>
       </c>
       <c r="N33" s="287">
         <v>58503</v>
@@ -6810,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="286">
-        <v>111.94180360068205</v>
+        <v>111.66643657022374</v>
       </c>
       <c r="Q33" s="286">
-        <v>2.2301452990540089</v>
+        <v>2.2459599398899583</v>
       </c>
       <c r="R33" s="286">
-        <v>-0.58569152780489542</v>
+        <v>-0.58217804616612112</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
@@ -6830,34 +6830,34 @@
         <v>29.15811088295688</v>
       </c>
       <c r="D34" s="287">
-        <v>67877.514292702326</v>
+        <v>67720.142866661481</v>
       </c>
       <c r="E34" s="287">
-        <v>67876.697192474632</v>
+        <v>67719.332482297774</v>
       </c>
       <c r="F34" s="287">
-        <v>67905.512500719109</v>
+        <v>67745.174907104418</v>
       </c>
       <c r="G34" s="288">
-        <v>67587.231139499665</v>
+        <v>67422.302544692546</v>
       </c>
       <c r="H34" s="287">
-        <v>66803.890881193438</v>
+        <v>66636.21992462968</v>
       </c>
       <c r="I34" s="287">
-        <v>65939.635522421973</v>
+        <v>65770.808358229042</v>
       </c>
       <c r="J34" s="287">
-        <v>64070.438309603458</v>
+        <v>63902.316837665028</v>
       </c>
       <c r="K34" s="287">
-        <v>62420.577843477309</v>
+        <v>62204.409432344975</v>
       </c>
       <c r="L34" s="287">
-        <v>59603.344958994989</v>
+        <v>59351.459665760078</v>
       </c>
       <c r="M34" s="287">
-        <v>64026.365964536788</v>
+        <v>63858.482483339831</v>
       </c>
       <c r="N34" s="287">
         <v>60442</v>
@@ -6866,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="286">
-        <v>111.82163253945876</v>
+        <v>111.54876169665555</v>
       </c>
       <c r="Q34" s="286">
-        <v>2.1862824121026931</v>
+        <v>2.2021273846768135</v>
       </c>
       <c r="R34" s="286">
-        <v>-0.57097461286193418</v>
+        <v>-0.56753218899544233</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
@@ -6886,34 +6886,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D35" s="241">
-        <v>8686.07584179089</v>
+        <v>8678.2385522552722</v>
       </c>
       <c r="E35" s="241">
-        <v>8686.07584179089</v>
+        <v>8678.2385522552722</v>
       </c>
       <c r="F35" s="241">
-        <v>8686.07584179089</v>
+        <v>8678.2385522552722</v>
       </c>
       <c r="G35" s="273">
-        <v>8668.9474233486089</v>
+        <v>8661.133380752728</v>
       </c>
       <c r="H35" s="241">
-        <v>8604.52092304056</v>
+        <v>8596.788215866889</v>
       </c>
       <c r="I35" s="241">
-        <v>8540.8864159126442</v>
+        <v>8533.2339195277655</v>
       </c>
       <c r="J35" s="241">
-        <v>8415.94381254947</v>
+        <v>8408.44843900462</v>
       </c>
       <c r="K35" s="241">
-        <v>8294.0227769104367</v>
+        <v>8286.6802495177326</v>
       </c>
       <c r="L35" s="241">
-        <v>8175.03004453613</v>
+        <v>8167.8362276421713</v>
       </c>
       <c r="M35" s="241">
-        <v>8321.7213713809142</v>
+        <v>8314.3346276034226</v>
       </c>
       <c r="N35" s="241">
         <v>8311.0000000000109</v>
@@ -6922,13 +6922,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="242">
-        <v>104.30691160327996</v>
+        <v>104.21289111722676</v>
       </c>
       <c r="Q35" s="242">
-        <v>1.4862266935808906</v>
+        <v>1.4856807808850041</v>
       </c>
       <c r="R35" s="242">
-        <v>-0.074736840718620093</v>
+        <v>-0.0748353980275395</v>
       </c>
     </row>
     <row r="36" outlineLevel="2">
@@ -6942,34 +6942,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D36" s="241">
-        <v>564.37022675575406</v>
+        <v>563.86100568136624</v>
       </c>
       <c r="E36" s="241">
-        <v>564.37022675575406</v>
+        <v>563.86100568136624</v>
       </c>
       <c r="F36" s="241">
-        <v>564.37022675575406</v>
+        <v>563.86100568136624</v>
       </c>
       <c r="G36" s="273">
-        <v>563.25732265771217</v>
+        <v>562.74961203302394</v>
       </c>
       <c r="H36" s="241">
-        <v>559.07126680807323</v>
+        <v>558.568840881736</v>
       </c>
       <c r="I36" s="241">
-        <v>554.93667002681025</v>
+        <v>554.43945572674545</v>
       </c>
       <c r="J36" s="241">
-        <v>546.81863298961684</v>
+        <v>546.33162760949165</v>
       </c>
       <c r="K36" s="241">
-        <v>538.896919688561</v>
+        <v>538.41984535429731</v>
       </c>
       <c r="L36" s="241">
-        <v>531.16547034646817</v>
+        <v>530.69805834758267</v>
       </c>
       <c r="M36" s="241">
-        <v>540.69661178506658</v>
+        <v>540.21666452964018</v>
       </c>
       <c r="N36" s="241">
         <v>539.999999999999</v>
@@ -6978,13 +6978,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="242">
-        <v>104.30691160328023</v>
+        <v>104.21289111722685</v>
       </c>
       <c r="Q36" s="242">
-        <v>1.4862266935812853</v>
+        <v>1.4856807808840939</v>
       </c>
       <c r="R36" s="242">
-        <v>-0.074736840740702845</v>
+        <v>-0.074835398033567466</v>
       </c>
     </row>
     <row r="37" outlineLevel="2">
@@ -6998,34 +6998,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D37" s="287">
-        <v>9250.4460685466438</v>
+        <v>9242.099557936639</v>
       </c>
       <c r="E37" s="287">
-        <v>9250.4460685466438</v>
+        <v>9242.099557936639</v>
       </c>
       <c r="F37" s="287">
-        <v>9250.4460685466438</v>
+        <v>9242.099557936639</v>
       </c>
       <c r="G37" s="288">
-        <v>9232.20474600632</v>
+        <v>9223.8829927857514</v>
       </c>
       <c r="H37" s="287">
-        <v>9163.5921898486322</v>
+        <v>9155.357056748624</v>
       </c>
       <c r="I37" s="287">
-        <v>9095.8230859394553</v>
+        <v>9087.6733752545115</v>
       </c>
       <c r="J37" s="287">
-        <v>8962.7624455390869</v>
+        <v>8954.7800666141138</v>
       </c>
       <c r="K37" s="287">
-        <v>8832.9196965989977</v>
+        <v>8825.10009487203</v>
       </c>
       <c r="L37" s="287">
-        <v>8706.1955148825982</v>
+        <v>8698.5342859897537</v>
       </c>
       <c r="M37" s="287">
-        <v>8862.4179831659785</v>
+        <v>8854.5512921330628</v>
       </c>
       <c r="N37" s="287">
         <v>8851.00000000001</v>
@@ -7034,13 +7034,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="286">
-        <v>104.30691160327999</v>
+        <v>104.21289111722678</v>
       </c>
       <c r="Q37" s="286">
-        <v>1.4862266935809703</v>
+        <v>1.4856807808849364</v>
       </c>
       <c r="R37" s="286">
-        <v>-0.074736840721075642</v>
+        <v>-0.074835398025688726</v>
       </c>
     </row>
     <row r="38" outlineLevel="2">
@@ -7051,37 +7051,37 @@
         <v>5.7838203259860377</v>
       </c>
       <c r="C38" s="286">
-        <v>23.058179329226558</v>
+        <v>23.049965776865161</v>
       </c>
       <c r="D38" s="287">
-        <v>88452.673980137144</v>
+        <v>88270.99812061699</v>
       </c>
       <c r="E38" s="287">
-        <v>88451.856879909421</v>
+        <v>88270.187736253312</v>
       </c>
       <c r="F38" s="287">
-        <v>88480.672188153927</v>
+        <v>88296.030161059942</v>
       </c>
       <c r="G38" s="288">
-        <v>88109.518661292546</v>
+        <v>87920.350540254149</v>
       </c>
       <c r="H38" s="287">
-        <v>87144.59900584846</v>
+        <v>86952.919384433029</v>
       </c>
       <c r="I38" s="287">
-        <v>86101.279876586676</v>
+        <v>85908.671800653756</v>
       </c>
       <c r="J38" s="287">
-        <v>83881.329416359091</v>
+        <v>83689.87341969338</v>
       </c>
       <c r="K38" s="287">
-        <v>81890.269074171068</v>
+        <v>81651.200699109686</v>
       </c>
       <c r="L38" s="287">
-        <v>78741.066497627777</v>
+        <v>78466.704360923381</v>
       </c>
       <c r="M38" s="287">
-        <v>83596.733905693487</v>
+        <v>83405.831101911739</v>
       </c>
       <c r="N38" s="287">
         <v>79878.000000000015</v>
@@ -7090,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="286">
-        <v>110.30511362489362</v>
+        <v>110.06829232110735</v>
       </c>
       <c r="Q38" s="286">
-        <v>2.0893493865681974</v>
+        <v>2.1013671836292009</v>
       </c>
       <c r="R38" s="286">
-        <v>-0.44730210627845068</v>
+        <v>-0.44455020966096148</v>
       </c>
     </row>
     <row r="39" outlineLevel="2">
@@ -7110,34 +7110,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D39" s="241">
-        <v>2196.3002602427964</v>
+        <v>2194.0245236289543</v>
       </c>
       <c r="E39" s="241">
-        <v>2196.3002602427964</v>
+        <v>2194.0245236289543</v>
       </c>
       <c r="F39" s="241">
-        <v>2196.3002602427964</v>
+        <v>2194.0245236289543</v>
       </c>
       <c r="G39" s="273">
-        <v>2191.9686515793264</v>
+        <v>2189.6996655818207</v>
       </c>
       <c r="H39" s="241">
-        <v>2175.676251022358</v>
+        <v>2173.4308835178717</v>
       </c>
       <c r="I39" s="241">
-        <v>2159.5841431586127</v>
+        <v>2157.3620675647194</v>
       </c>
       <c r="J39" s="241">
-        <v>2127.98826931643</v>
+        <v>2125.81181962325</v>
       </c>
       <c r="K39" s="241">
-        <v>2097.1565396015862</v>
+        <v>2095.0244739022146</v>
       </c>
       <c r="L39" s="241">
-        <v>2067.0653669368539</v>
+        <v>2064.9764842799832</v>
       </c>
       <c r="M39" s="241">
-        <v>2104.1617025929727</v>
+        <v>2102.016796709499</v>
       </c>
       <c r="N39" s="241">
         <v>2079</v>
@@ -7146,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="242">
-        <v>105.43379757476318</v>
+        <v>105.32465923914481</v>
       </c>
       <c r="Q39" s="242">
-        <v>1.4864302753178864</v>
+        <v>1.4858033835043325</v>
       </c>
       <c r="R39" s="242">
-        <v>-0.0747113348461016</v>
+        <v>-0.074824516977248359</v>
       </c>
     </row>
     <row r="40" outlineLevel="2">
@@ -7163,37 +7163,37 @@
         <v>6.62931839406092</v>
       </c>
       <c r="C40" s="242">
-        <v>3.6167008898015056</v>
+        <v>3.6139630390143735</v>
       </c>
       <c r="D40" s="241">
-        <v>10165.081197658035</v>
+        <v>10134.811555331233</v>
       </c>
       <c r="E40" s="241">
-        <v>10165.081197658035</v>
+        <v>10134.811555331233</v>
       </c>
       <c r="F40" s="241">
-        <v>10165.081197658035</v>
+        <v>10134.811555331233</v>
       </c>
       <c r="G40" s="273">
-        <v>10092.414444995287</v>
+        <v>10062.261829635458</v>
       </c>
       <c r="H40" s="241">
-        <v>9940.29782312315</v>
+        <v>9910.4716538572</v>
       </c>
       <c r="I40" s="241">
-        <v>9791.1907136276441</v>
+        <v>9761.6857382158414</v>
       </c>
       <c r="J40" s="241">
-        <v>9501.72881073184</v>
+        <v>9472.8508815009245</v>
       </c>
       <c r="K40" s="241">
-        <v>9223.4940067949556</v>
+        <v>9195.2233366342989</v>
       </c>
       <c r="L40" s="241">
-        <v>8955.9787959522928</v>
+        <v>8928.2963678085416</v>
       </c>
       <c r="M40" s="241">
-        <v>9378.9917463577312</v>
+        <v>9350.4831285398159</v>
       </c>
       <c r="N40" s="241">
         <v>8568.00000000001</v>
@@ -7202,13 +7202,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="242">
-        <v>117.79195197240053</v>
+        <v>117.44003069135675</v>
       </c>
       <c r="Q40" s="242">
-        <v>3.0269751750943428</v>
+        <v>3.0295177841416412</v>
       </c>
       <c r="R40" s="242">
-        <v>0.10150347553357771</v>
+        <v>0.10185423595260487</v>
       </c>
     </row>
     <row r="41" outlineLevel="2">
@@ -7222,34 +7222,34 @@
         <v>4</v>
       </c>
       <c r="D41" s="241">
-        <v>5571.4619822287705</v>
+        <v>5563.603265046354</v>
       </c>
       <c r="E41" s="241">
-        <v>5571.4619822287705</v>
+        <v>5563.603265046354</v>
       </c>
       <c r="F41" s="241">
-        <v>5571.4619822287705</v>
+        <v>5563.603265046354</v>
       </c>
       <c r="G41" s="273">
-        <v>5558.293255437321</v>
+        <v>5550.4685168028691</v>
       </c>
       <c r="H41" s="241">
-        <v>5515.6954129850155</v>
+        <v>5507.9653699965556</v>
       </c>
       <c r="I41" s="241">
-        <v>5473.6840168740837</v>
+        <v>5466.0471252128809</v>
       </c>
       <c r="J41" s="241">
-        <v>5391.3787326271859</v>
+        <v>5383.9236318554713</v>
       </c>
       <c r="K41" s="241">
-        <v>5311.2959580975239</v>
+        <v>5304.0168276774857</v>
       </c>
       <c r="L41" s="241">
-        <v>5233.3576764506179</v>
+        <v>5226.248920839621</v>
       </c>
       <c r="M41" s="241">
-        <v>5334.8591177681</v>
+        <v>5327.5094016742378</v>
       </c>
       <c r="N41" s="241">
         <v>5172</v>
@@ -7258,13 +7258,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="242">
-        <v>107.46893378649112</v>
+        <v>107.31764340299438</v>
       </c>
       <c r="Q41" s="242">
-        <v>1.5259740757170539</v>
+        <v>1.5247057246176532</v>
       </c>
       <c r="R41" s="242">
-        <v>-0.084189370638084182</v>
+        <v>-0.0843825385905508</v>
       </c>
     </row>
     <row r="42" outlineLevel="2">
@@ -7278,34 +7278,34 @@
         <v>4</v>
       </c>
       <c r="D42" s="241">
-        <v>3700.6020379035149</v>
+        <v>3694.727088439995</v>
       </c>
       <c r="E42" s="241">
-        <v>3700.6020379035149</v>
+        <v>3694.727088439995</v>
       </c>
       <c r="F42" s="241">
-        <v>3700.6020379035149</v>
+        <v>3694.727088439995</v>
       </c>
       <c r="G42" s="273">
-        <v>3690.7823302726997</v>
+        <v>3684.9345897319</v>
       </c>
       <c r="H42" s="241">
-        <v>3660.1928320750458</v>
+        <v>3654.4188278693973</v>
       </c>
       <c r="I42" s="241">
-        <v>3630.0393423896721</v>
+        <v>3624.3378463464787</v>
       </c>
       <c r="J42" s="241">
-        <v>3571.0086871327712</v>
+        <v>3565.448620446211</v>
       </c>
       <c r="K42" s="241">
-        <v>3513.6286606518729</v>
+        <v>3508.2053977390437</v>
       </c>
       <c r="L42" s="241">
-        <v>3457.8401848111694</v>
+        <v>3452.549281095784</v>
       </c>
       <c r="M42" s="241">
-        <v>3531.9630878504058</v>
+        <v>3526.4823364659392</v>
       </c>
       <c r="N42" s="241">
         <v>3501</v>
@@ -7314,13 +7314,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="242">
-        <v>105.42080349250784</v>
+        <v>105.25377291436446</v>
       </c>
       <c r="Q42" s="242">
-        <v>1.626064329089481</v>
+        <v>1.624679515728036</v>
       </c>
       <c r="R42" s="242">
-        <v>-0.06067938219017547</v>
+        <v>-0.060875434510320896</v>
       </c>
     </row>
     <row r="43" outlineLevel="2">
@@ -7334,34 +7334,34 @@
         <v>4</v>
       </c>
       <c r="D43" s="287">
-        <v>9272.064020132284</v>
+        <v>9258.33035348635</v>
       </c>
       <c r="E43" s="287">
-        <v>9272.064020132284</v>
+        <v>9258.33035348635</v>
       </c>
       <c r="F43" s="287">
-        <v>9272.064020132284</v>
+        <v>9258.33035348635</v>
       </c>
       <c r="G43" s="288">
-        <v>9249.0755857100212</v>
+        <v>9235.40310653477</v>
       </c>
       <c r="H43" s="287">
-        <v>9175.8882450600613</v>
+        <v>9162.384197865953</v>
       </c>
       <c r="I43" s="287">
-        <v>9103.7233592637549</v>
+        <v>9090.3849715593587</v>
       </c>
       <c r="J43" s="287">
-        <v>8962.387419759958</v>
+        <v>8949.3722523016822</v>
       </c>
       <c r="K43" s="287">
-        <v>8824.9246187493973</v>
+        <v>8812.22222541653</v>
       </c>
       <c r="L43" s="287">
-        <v>8691.1978612617877</v>
+        <v>8678.7982019354058</v>
       </c>
       <c r="M43" s="287">
-        <v>8866.8222056185059</v>
+        <v>8853.9917381401774</v>
       </c>
       <c r="N43" s="287">
         <v>8673</v>
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="286">
-        <v>106.64217209397003</v>
+        <v>106.48452792038245</v>
       </c>
       <c r="Q43" s="286">
-        <v>1.5659144281506123</v>
+        <v>1.5645953619924491</v>
       </c>
       <c r="R43" s="286">
-        <v>-0.074807865522072262</v>
+        <v>-0.075003181791357024</v>
       </c>
     </row>
     <row r="44" outlineLevel="2">
@@ -7390,34 +7390,34 @@
         <v>4</v>
       </c>
       <c r="D44" s="241">
-        <v>1136.4145816706277</v>
+        <v>1132.8063295930508</v>
       </c>
       <c r="E44" s="241">
-        <v>1136.4145816706277</v>
+        <v>1132.8063295930508</v>
       </c>
       <c r="F44" s="241">
-        <v>1136.4145816706277</v>
+        <v>1132.8063295930508</v>
       </c>
       <c r="G44" s="273">
-        <v>1126.705482725273</v>
+        <v>1123.1112867081235</v>
       </c>
       <c r="H44" s="241">
-        <v>1107.6322067620442</v>
+        <v>1104.0770811760449</v>
       </c>
       <c r="I44" s="241">
-        <v>1088.9585541118104</v>
+        <v>1085.4418680358465</v>
       </c>
       <c r="J44" s="241">
-        <v>1052.7723795175546</v>
+        <v>1049.330729692532</v>
       </c>
       <c r="K44" s="241">
-        <v>1018.0739378079828</v>
+        <v>1014.70494767067</v>
       </c>
       <c r="L44" s="241">
-        <v>984.79398331682967</v>
+        <v>981.49536901727879</v>
       </c>
       <c r="M44" s="241">
-        <v>1039.3894839183806</v>
+        <v>1035.9918237155227</v>
       </c>
       <c r="N44" s="241">
         <v>957</v>
@@ -7426,13 +7426,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="242">
-        <v>117.73307029522184</v>
+        <v>117.35750122341939</v>
       </c>
       <c r="Q44" s="242">
-        <v>3.399033864494625</v>
+        <v>3.4029115395518583</v>
       </c>
       <c r="R44" s="242">
-        <v>0.12242542457936487</v>
+        <v>0.12286892797943297</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
@@ -7499,37 +7499,37 @@
         <v>5.9775280898850287</v>
       </c>
       <c r="C46" s="286">
-        <v>19.1129363449692</v>
+        <v>19.110198494182068</v>
       </c>
       <c r="D46" s="287">
-        <v>111192.53403984089</v>
+        <v>110960.97088265658</v>
       </c>
       <c r="E46" s="287">
-        <v>111191.71693961318</v>
+        <v>110960.16049829288</v>
       </c>
       <c r="F46" s="287">
-        <v>111220.53224785767</v>
+        <v>110986.00292309951</v>
       </c>
       <c r="G46" s="288">
-        <v>110739.68282630245</v>
+        <v>110500.82642871431</v>
       </c>
       <c r="H46" s="287">
-        <v>109514.09353181606</v>
+        <v>109273.28320085009</v>
       </c>
       <c r="I46" s="287">
-        <v>108214.7366467485</v>
+        <v>107973.54644602952</v>
       </c>
       <c r="J46" s="287">
-        <v>105496.20629568487</v>
+        <v>105257.23910281177</v>
       </c>
       <c r="K46" s="287">
-        <v>103023.91817712499</v>
+        <v>102738.37568273339</v>
       </c>
       <c r="L46" s="287">
-        <v>99410.102505095536</v>
+        <v>99090.270783964588</v>
       </c>
       <c r="M46" s="287">
-        <v>104956.09904418106</v>
+        <v>104718.31458901677</v>
       </c>
       <c r="N46" s="287">
         <v>100125.00000000003</v>
@@ -7538,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="286">
-        <v>110.60143103750554</v>
+        <v>110.3628728376672</v>
       </c>
       <c r="Q46" s="286">
-        <v>2.1330405712117244</v>
+        <v>2.1426239839853127</v>
       </c>
       <c r="R46" s="286">
-        <v>-0.353124446889979</v>
+        <v>-0.35093546253741809</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
@@ -7835,37 +7835,37 @@
         <v>4.789609153372977</v>
       </c>
       <c r="C52" s="295">
-        <v>15.849418206707734</v>
+        <v>15.838466803559205</v>
       </c>
       <c r="D52" s="287">
-        <v>138168.03309282806</v>
+        <v>137933.60745040915</v>
       </c>
       <c r="E52" s="287">
-        <v>138165.46372281626</v>
+        <v>137931.04424439455</v>
       </c>
       <c r="F52" s="287">
-        <v>138182.32087788559</v>
+        <v>137944.83590063723</v>
       </c>
       <c r="G52" s="288">
-        <v>137652.98448270303</v>
+        <v>137411.13891592843</v>
       </c>
       <c r="H52" s="287">
-        <v>136345.77133444848</v>
+        <v>136102.01154921783</v>
       </c>
       <c r="I52" s="287">
-        <v>134964.9337089952</v>
+        <v>134720.86905909615</v>
       </c>
       <c r="J52" s="287">
-        <v>132087.43177338509</v>
+        <v>131845.77243286473</v>
       </c>
       <c r="K52" s="287">
-        <v>129463.7471309526</v>
+        <v>129175.72665741605</v>
       </c>
       <c r="L52" s="287">
-        <v>125707.28390314331</v>
+        <v>125385.18633099881</v>
       </c>
       <c r="M52" s="287">
-        <v>131551.54013850252</v>
+        <v>131310.91429729623</v>
       </c>
       <c r="N52" s="287">
         <v>126904.00000000003</v>
@@ -7874,13 +7874,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="286">
-        <v>108.47016995737171</v>
+        <v>108.27959632157253</v>
       </c>
       <c r="Q52" s="286">
-        <v>1.8326827288723522</v>
+        <v>1.8398877880891247</v>
       </c>
       <c r="R52" s="286">
-        <v>-0.31301880051647413</v>
+        <v>-0.31101699295647867</v>
       </c>
     </row>
     <row r="54">
@@ -8439,37 +8439,37 @@
         <v>37.888066832634657</v>
       </c>
       <c r="C66" s="295">
-        <v>12.19438740588638</v>
+        <v>12.180698151950717</v>
       </c>
       <c r="D66" s="287">
-        <v>22841.565875951044</v>
+        <v>22607.140233532125</v>
       </c>
       <c r="E66" s="287">
-        <v>22877.852784559469</v>
+        <v>22643.433306137751</v>
       </c>
       <c r="F66" s="287">
-        <v>23063.006039018317</v>
+        <v>22825.521061769981</v>
       </c>
       <c r="G66" s="288">
-        <v>23019.922971081007</v>
+        <v>22778.077404306416</v>
       </c>
       <c r="H66" s="287">
-        <v>22459.160311119162</v>
+        <v>22215.400525888494</v>
       </c>
       <c r="I66" s="287">
-        <v>21803.986064311153</v>
+        <v>21559.921414412103</v>
       </c>
       <c r="J66" s="287">
-        <v>20323.780217426116</v>
+        <v>20082.120876905767</v>
       </c>
       <c r="K66" s="287">
-        <v>19029.922828214036</v>
+        <v>18741.902354677492</v>
       </c>
       <c r="L66" s="287">
-        <v>16543.573965141983</v>
+        <v>16221.476392997469</v>
       </c>
       <c r="M66" s="287">
-        <v>20151.655359318433</v>
+        <v>19911.029518112147</v>
       </c>
       <c r="N66" s="287">
         <v>13646.000000000029</v>
@@ -8478,13 +8478,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="286">
-        <v>168.69355834003341</v>
+        <v>166.92127659611876</v>
       </c>
       <c r="Q66" s="286">
-        <v>4.3427536664583837</v>
+        <v>4.412869545562307</v>
       </c>
       <c r="R66" s="286">
-        <v>-2.6870877536948519</v>
+        <v>-2.7002182470834017</v>
       </c>
     </row>
   </sheetData>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_EVE.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 02/10/21 4:46:49 AM</t>
+    <t>Printed on: 03/14/21 4:45:36 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -4878,19 +4878,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="253">
-        <v>22607.140233532125</v>
+        <v>22642.578557353943</v>
       </c>
       <c r="F10" s="249">
-        <v>-170.93717077429028</v>
+        <v>-172.29750442958175</v>
       </c>
       <c r="G10" s="249">
-        <v>-0.75044600007361884</v>
+        <v>-0.7551980732351723</v>
       </c>
       <c r="H10" s="249">
-        <v>16.389870932404925</v>
+        <v>16.411346784557519</v>
       </c>
       <c r="I10" s="249">
-        <v>-18.671636903838298</v>
+        <v>-18.757529792116269</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4898,19 +4898,19 @@
         <v>16</v>
       </c>
       <c r="E11" s="253">
-        <v>22643.433306137751</v>
+        <v>22678.868214352518</v>
       </c>
       <c r="F11" s="249">
-        <v>-134.64409816866464</v>
+        <v>-136.00784743100667</v>
       </c>
       <c r="G11" s="249">
-        <v>-0.59111265529025236</v>
+        <v>-0.59613669196664665</v>
       </c>
       <c r="H11" s="249">
-        <v>16.416487985124473</v>
+        <v>16.437955330632644</v>
       </c>
       <c r="I11" s="249">
-        <v>-16.009931631883525</v>
+        <v>-16.09667518460385</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4918,19 +4918,19 @@
         <v>17</v>
       </c>
       <c r="E12" s="253">
-        <v>22825.521061769981</v>
+        <v>22861.946320486888</v>
       </c>
       <c r="F12" s="249">
-        <v>47.443657463565614</v>
+        <v>47.070258703362924</v>
       </c>
       <c r="G12" s="249">
-        <v>0.20828648801850122</v>
+        <v>0.20631389176033624</v>
       </c>
       <c r="H12" s="249">
-        <v>16.54684708763682</v>
+        <v>16.568877634828759</v>
       </c>
       <c r="I12" s="249">
-        <v>-2.9740213806487859</v>
+        <v>-3.0044447649923116</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -4938,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="265">
-        <v>22778.077404306416</v>
+        <v>22814.876061783525</v>
       </c>
       <c r="F13" s="266">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="266">
-        <v>16.576587301443308</v>
+        <v>16.598922082478683</v>
       </c>
       <c r="I13" s="266">
         <v>0</v>
@@ -4958,19 +4958,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="253">
-        <v>22215.400525888494</v>
+        <v>22251.716244294686</v>
       </c>
       <c r="F14" s="249">
-        <v>-562.67687841792213</v>
+        <v>-563.1598174888386</v>
       </c>
       <c r="G14" s="249">
-        <v>-2.4702562399385939</v>
+        <v>-2.4683886774742105</v>
       </c>
       <c r="H14" s="249">
-        <v>16.322609984243222</v>
+        <v>16.344931431801513</v>
       </c>
       <c r="I14" s="249">
-        <v>-25.397731720008597</v>
+        <v>-25.39906506771694</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -4978,19 +4978,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="253">
-        <v>21559.921414412103</v>
+        <v>21595.356679148725</v>
       </c>
       <c r="F15" s="249">
-        <v>-1218.1559898943124</v>
+        <v>-1219.5193826348004</v>
       </c>
       <c r="G15" s="249">
-        <v>-5.3479315583676446</v>
+        <v>-5.345281645766109</v>
       </c>
       <c r="H15" s="249">
-        <v>16.003401377224421</v>
+        <v>16.025488965067595</v>
       </c>
       <c r="I15" s="249">
-        <v>-57.318592421888717</v>
+        <v>-57.343311741108714</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -4998,19 +4998,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="253">
-        <v>20082.120876905767</v>
+        <v>20115.195685397281</v>
       </c>
       <c r="F16" s="249">
-        <v>-2695.9565274006491</v>
+        <v>-2699.6803763862445</v>
       </c>
       <c r="G16" s="249">
-        <v>-11.835751014222792</v>
+        <v>-11.832982870805042</v>
       </c>
       <c r="H16" s="249">
-        <v>15.23152430779037</v>
+        <v>15.252783980272238</v>
       </c>
       <c r="I16" s="249">
-        <v>-134.50629936529387</v>
+        <v>-134.61381022064444</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -5018,19 +5018,19 @@
         <v>22</v>
       </c>
       <c r="E17" s="253">
-        <v>18741.902354677492</v>
+        <v>18774.927152690692</v>
       </c>
       <c r="F17" s="249">
-        <v>-4036.1750496289242</v>
+        <v>-4039.9489090928328</v>
       </c>
       <c r="G17" s="249">
-        <v>-17.719559811776943</v>
+        <v>-17.707520734070624</v>
       </c>
       <c r="H17" s="249">
-        <v>14.508842210257084</v>
+        <v>14.530693115757821</v>
       </c>
       <c r="I17" s="249">
-        <v>-206.77450911862238</v>
+        <v>-206.82289667208616</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -5038,19 +5038,19 @@
         <v>23</v>
       </c>
       <c r="E18" s="253">
-        <v>16221.476392997469</v>
+        <v>16253.765342519173</v>
       </c>
       <c r="F18" s="249">
-        <v>-6556.6010113089469</v>
+        <v>-6561.1107192643522</v>
       </c>
       <c r="G18" s="249">
-        <v>-28.78469896703994</v>
+        <v>-28.758037963899618</v>
       </c>
       <c r="H18" s="249">
-        <v>12.937314899524981</v>
+        <v>12.95972934087891</v>
       </c>
       <c r="I18" s="249">
-        <v>-363.92724019183265</v>
+        <v>-363.91927415997719</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -5058,19 +5058,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="253">
-        <v>19911.029518112147</v>
+        <v>19945.632352437646</v>
       </c>
       <c r="F19" s="249">
-        <v>-2867.0478861942684</v>
+        <v>-2869.2437093458793</v>
       </c>
       <c r="G19" s="249">
-        <v>-12.586873928403744</v>
+        <v>-12.576196783080748</v>
       </c>
       <c r="H19" s="249">
-        <v>15.163270794865014</v>
+        <v>15.185620939350423</v>
       </c>
       <c r="I19" s="249">
-        <v>-141.33165065782944</v>
+        <v>-141.33011431282588</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -5103,7 +5103,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="267">
-        <v>0.16576587301443307</v>
+        <v>0.16598922082478679</v>
       </c>
       <c r="F22" s="254" t="s">
         <v>27</v>
@@ -5115,7 +5115,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="267">
-        <v>0.1523152430779037</v>
+        <v>0.15252783980272239</v>
       </c>
       <c r="F23" s="254" t="s">
         <v>29</v>
@@ -5139,7 +5139,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="268">
-        <v>4.412869545562307</v>
+        <v>4.4073105705909219</v>
       </c>
       <c r="F25" s="254" t="s">
         <v>34</v>
@@ -5159,52 +5159,52 @@
     </row>
     <row r="29" ht="9.95" customHeight="1">
       <c r="H29" s="249">
-        <v>137933.60745040915</v>
+        <v>137969.04577423097</v>
       </c>
     </row>
     <row r="30" ht="9.95" customHeight="1">
       <c r="H30" s="249">
-        <v>137931.04424439455</v>
+        <v>137966.47915260933</v>
       </c>
     </row>
     <row r="31" ht="9.95" customHeight="1">
       <c r="H31" s="249">
-        <v>137944.83590063723</v>
+        <v>137981.26115935412</v>
       </c>
     </row>
     <row r="32" ht="9.95" customHeight="1">
       <c r="H32" s="249">
-        <v>137411.13891592843</v>
+        <v>137447.93757340554</v>
       </c>
     </row>
     <row r="33" ht="9.95" customHeight="1">
       <c r="H33" s="249">
-        <v>136102.01154921783</v>
+        <v>136138.327267624</v>
       </c>
     </row>
     <row r="34" ht="9.95" customHeight="1">
       <c r="H34" s="249">
-        <v>134720.86905909615</v>
+        <v>134756.30432383277</v>
       </c>
     </row>
     <row r="35" ht="9.95" customHeight="1">
       <c r="H35" s="249">
-        <v>131845.77243286473</v>
+        <v>131878.84724135624</v>
       </c>
     </row>
     <row r="36" ht="9.95" customHeight="1">
       <c r="H36" s="249">
-        <v>129175.72665741605</v>
+        <v>129208.75145542926</v>
       </c>
     </row>
     <row r="37" ht="9.95" customHeight="1">
       <c r="H37" s="249">
-        <v>125385.18633099881</v>
+        <v>125417.47528052052</v>
       </c>
     </row>
     <row r="38" ht="9.95" customHeight="1">
       <c r="H38" s="249">
-        <v>131310.91429729623</v>
+        <v>131345.51713162172</v>
       </c>
     </row>
     <row r="39" ht="9.95" customHeight="1">
@@ -5405,37 +5405,37 @@
         <v>4.789609153372977</v>
       </c>
       <c r="C7" s="276">
-        <v>15.838466803559205</v>
+        <v>15.841204654346337</v>
       </c>
       <c r="D7" s="277">
-        <v>137933.60745040915</v>
+        <v>137969.04577423097</v>
       </c>
       <c r="E7" s="277">
-        <v>137931.04424439455</v>
+        <v>137966.47915260933</v>
       </c>
       <c r="F7" s="277">
-        <v>137944.83590063723</v>
+        <v>137981.26115935412</v>
       </c>
       <c r="G7" s="278">
-        <v>137411.13891592843</v>
+        <v>137447.93757340554</v>
       </c>
       <c r="H7" s="277">
-        <v>136102.01154921783</v>
+        <v>136138.327267624</v>
       </c>
       <c r="I7" s="277">
-        <v>134720.86905909615</v>
+        <v>134756.30432383277</v>
       </c>
       <c r="J7" s="277">
-        <v>131845.77243286473</v>
+        <v>131878.84724135624</v>
       </c>
       <c r="K7" s="277">
-        <v>129175.72665741605</v>
+        <v>129208.75145542926</v>
       </c>
       <c r="L7" s="277">
-        <v>125385.18633099881</v>
+        <v>125417.47528052052</v>
       </c>
       <c r="M7" s="277">
-        <v>131310.91429729623</v>
+        <v>131345.51713162172</v>
       </c>
       <c r="N7" s="277">
         <v>126904.00000000003</v>
@@ -5444,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="275">
-        <v>108.27959632157253</v>
+        <v>108.30859356159419</v>
       </c>
       <c r="Q7" s="275">
-        <v>1.8398877880891247</v>
+        <v>1.839653917351062</v>
       </c>
       <c r="R7" s="275">
-        <v>-0.31101699295647867</v>
+        <v>-0.31275201447379336</v>
       </c>
     </row>
     <row r="8">
@@ -5461,37 +5461,37 @@
         <v>4.789609153372977</v>
       </c>
       <c r="C8" s="276">
-        <v>15.838466803559205</v>
+        <v>15.841204654346337</v>
       </c>
       <c r="D8" s="277">
-        <v>137933.60745040915</v>
+        <v>137969.04577423097</v>
       </c>
       <c r="E8" s="277">
-        <v>137931.04424439455</v>
+        <v>137966.47915260933</v>
       </c>
       <c r="F8" s="277">
-        <v>137944.83590063723</v>
+        <v>137981.26115935412</v>
       </c>
       <c r="G8" s="278">
-        <v>137411.13891592843</v>
+        <v>137447.93757340554</v>
       </c>
       <c r="H8" s="277">
-        <v>136102.01154921783</v>
+        <v>136138.327267624</v>
       </c>
       <c r="I8" s="277">
-        <v>134720.86905909615</v>
+        <v>134756.30432383277</v>
       </c>
       <c r="J8" s="277">
-        <v>131845.77243286473</v>
+        <v>131878.84724135624</v>
       </c>
       <c r="K8" s="277">
-        <v>129175.72665741605</v>
+        <v>129208.75145542926</v>
       </c>
       <c r="L8" s="277">
-        <v>125385.18633099881</v>
+        <v>125417.47528052052</v>
       </c>
       <c r="M8" s="277">
-        <v>131310.91429729623</v>
+        <v>131345.51713162172</v>
       </c>
       <c r="N8" s="277">
         <v>126904.00000000003</v>
@@ -5500,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="275">
-        <v>108.27959632157253</v>
+        <v>108.30859356159419</v>
       </c>
       <c r="Q8" s="275">
-        <v>1.8398877880891247</v>
+        <v>1.839653917351062</v>
       </c>
       <c r="R8" s="275">
-        <v>-0.31101699295647867</v>
+        <v>-0.31275201447379336</v>
       </c>
     </row>
     <row r="9">
@@ -5573,37 +5573,37 @@
         <v>37.888066832634657</v>
       </c>
       <c r="C10" s="281">
-        <v>12.180698151950717</v>
+        <v>12.186173853524982</v>
       </c>
       <c r="D10" s="282">
-        <v>22607.140233532125</v>
+        <v>22642.578557353943</v>
       </c>
       <c r="E10" s="282">
-        <v>22643.433306137751</v>
+        <v>22678.868214352518</v>
       </c>
       <c r="F10" s="282">
-        <v>22825.521061769981</v>
+        <v>22861.946320486888</v>
       </c>
       <c r="G10" s="283">
-        <v>22778.077404306416</v>
+        <v>22814.876061783525</v>
       </c>
       <c r="H10" s="282">
-        <v>22215.400525888494</v>
+        <v>22251.716244294686</v>
       </c>
       <c r="I10" s="282">
-        <v>21559.921414412103</v>
+        <v>21595.356679148725</v>
       </c>
       <c r="J10" s="282">
-        <v>20082.120876905767</v>
+        <v>20115.195685397281</v>
       </c>
       <c r="K10" s="282">
-        <v>18741.902354677492</v>
+        <v>18774.927152690692</v>
       </c>
       <c r="L10" s="282">
-        <v>16221.476392997469</v>
+        <v>16253.765342519173</v>
       </c>
       <c r="M10" s="282">
-        <v>19911.029518112147</v>
+        <v>19945.632352437646</v>
       </c>
       <c r="N10" s="282">
         <v>13646.000000000029</v>
@@ -5612,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="280">
-        <v>166.92127659611876</v>
+        <v>167.19094285346239</v>
       </c>
       <c r="Q10" s="280">
-        <v>4.412869545562307</v>
+        <v>4.4073105705909219</v>
       </c>
       <c r="R10" s="280">
-        <v>-2.7002182470834017</v>
+        <v>-2.7068172630260192</v>
       </c>
     </row>
     <row r="12">
@@ -6043,37 +6043,37 @@
         <v>2.5551503925899</v>
       </c>
       <c r="C20" s="242">
-        <v>23.775496235455169</v>
+        <v>23.887748117727583</v>
       </c>
       <c r="D20" s="241">
-        <v>1343.1640032386458</v>
+        <v>1371.4729423856911</v>
       </c>
       <c r="E20" s="241">
-        <v>1341.4111815877507</v>
+        <v>1369.7173863504086</v>
       </c>
       <c r="F20" s="241">
-        <v>1329.3604130237939</v>
+        <v>1358.5071307682979</v>
       </c>
       <c r="G20" s="273">
-        <v>1299.1592036728609</v>
+        <v>1328.4593318477528</v>
       </c>
       <c r="H20" s="241">
-        <v>1260.3078183035098</v>
+        <v>1289.0091031298689</v>
       </c>
       <c r="I20" s="241">
-        <v>1220.8993844904949</v>
+        <v>1248.6941483302687</v>
       </c>
       <c r="J20" s="241">
-        <v>1143.9681417937732</v>
+        <v>1169.5228701844021</v>
       </c>
       <c r="K20" s="241">
-        <v>1071.9066035835983</v>
+        <v>1095.0510682879219</v>
       </c>
       <c r="L20" s="241">
-        <v>1005.9822181421386</v>
+        <v>1026.7815686819663</v>
       </c>
       <c r="M20" s="241">
-        <v>1189.9896268494881</v>
+        <v>1216.993414182004</v>
       </c>
       <c r="N20" s="241">
         <v>1237</v>
@@ -6082,13 +6082,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="242">
-        <v>105.02499625487963</v>
+        <v>107.39364040806409</v>
       </c>
       <c r="Q20" s="242">
-        <v>5.8488021685474019</v>
+        <v>5.77338032691752</v>
       </c>
       <c r="R20" s="242">
-        <v>-0.80837347511402213</v>
+        <v>-0.95902600016292494</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
@@ -6099,37 +6099,37 @@
         <v>2.5551503925899</v>
       </c>
       <c r="C21" s="286">
-        <v>23.775496235455169</v>
+        <v>23.887748117727583</v>
       </c>
       <c r="D21" s="287">
-        <v>1343.1640032386458</v>
+        <v>1371.4729423856911</v>
       </c>
       <c r="E21" s="287">
-        <v>1341.4111815877507</v>
+        <v>1369.7173863504086</v>
       </c>
       <c r="F21" s="287">
-        <v>1329.3604130237939</v>
+        <v>1358.5071307682979</v>
       </c>
       <c r="G21" s="288">
-        <v>1299.1592036728609</v>
+        <v>1328.4593318477528</v>
       </c>
       <c r="H21" s="287">
-        <v>1260.3078183035098</v>
+        <v>1289.0091031298689</v>
       </c>
       <c r="I21" s="287">
-        <v>1220.8993844904949</v>
+        <v>1248.6941483302687</v>
       </c>
       <c r="J21" s="287">
-        <v>1143.9681417937732</v>
+        <v>1169.5228701844021</v>
       </c>
       <c r="K21" s="287">
-        <v>1071.9066035835983</v>
+        <v>1095.0510682879219</v>
       </c>
       <c r="L21" s="287">
-        <v>1005.9822181421386</v>
+        <v>1026.7815686819663</v>
       </c>
       <c r="M21" s="287">
-        <v>1189.9896268494881</v>
+        <v>1216.993414182004</v>
       </c>
       <c r="N21" s="287">
         <v>1237</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="286">
-        <v>105.02499625487963</v>
+        <v>107.39364040806409</v>
       </c>
       <c r="Q21" s="286">
-        <v>5.8488021685474019</v>
+        <v>5.77338032691752</v>
       </c>
       <c r="R21" s="286">
-        <v>-0.80837347511402213</v>
+        <v>-0.95902600016292494</v>
       </c>
     </row>
     <row r="22" outlineLevel="2">
@@ -6267,37 +6267,37 @@
         <v>2.3874488404001406</v>
       </c>
       <c r="C24" s="286">
-        <v>20.40520191649555</v>
+        <v>20.563997262149211</v>
       </c>
       <c r="D24" s="287">
-        <v>1577.7041092593149</v>
+        <v>1606.0130484063602</v>
       </c>
       <c r="E24" s="287">
-        <v>1575.9512876084195</v>
+        <v>1604.2574923710777</v>
       </c>
       <c r="F24" s="287">
-        <v>1563.9005190444627</v>
+        <v>1593.047236788967</v>
       </c>
       <c r="G24" s="288">
-        <v>1532.711394013689</v>
+        <v>1562.0115221885806</v>
       </c>
       <c r="H24" s="287">
-        <v>1491.7894814605568</v>
+        <v>1520.4907662869159</v>
       </c>
       <c r="I24" s="287">
-        <v>1450.3515255082848</v>
+        <v>1478.1462893480586</v>
       </c>
       <c r="J24" s="287">
-        <v>1369.480289703306</v>
+        <v>1395.0350180939352</v>
       </c>
       <c r="K24" s="287">
-        <v>1293.6311596521452</v>
+        <v>1316.7756243564688</v>
       </c>
       <c r="L24" s="287">
-        <v>1224.0643467431296</v>
+        <v>1244.8636972829575</v>
       </c>
       <c r="M24" s="287">
-        <v>1413.842337468913</v>
+        <v>1440.8461248014289</v>
       </c>
       <c r="N24" s="287">
         <v>1466</v>
@@ -6306,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="286">
-        <v>104.55057257937851</v>
+        <v>106.54921706606962</v>
       </c>
       <c r="Q24" s="286">
-        <v>5.22946954732463</v>
+        <v>5.1769421984620223</v>
       </c>
       <c r="R24" s="286">
-        <v>-0.69422852849874039</v>
+        <v>-0.824496590826691</v>
       </c>
     </row>
     <row r="25" outlineLevel="1">
@@ -6323,37 +6323,37 @@
         <v>1.5139900344779045</v>
       </c>
       <c r="C25" s="286">
-        <v>7.1211498973305956</v>
+        <v>7.2388774811772763</v>
       </c>
       <c r="D25" s="287">
-        <v>5410.452767752563</v>
+        <v>5438.76170689961</v>
       </c>
       <c r="E25" s="287">
-        <v>5408.6999461016685</v>
+        <v>5437.0061508643266</v>
       </c>
       <c r="F25" s="287">
-        <v>5396.6491775377117</v>
+        <v>5425.7958952822155</v>
       </c>
       <c r="G25" s="288">
-        <v>5349.2011419028286</v>
+        <v>5378.5012700777206</v>
       </c>
       <c r="H25" s="287">
-        <v>5274.3067983185219</v>
+        <v>5303.00808314488</v>
       </c>
       <c r="I25" s="287">
-        <v>5199.5713781321374</v>
+        <v>5227.366141971911</v>
       </c>
       <c r="J25" s="287">
-        <v>5054.0647038903635</v>
+        <v>5079.6194322809924</v>
       </c>
       <c r="K25" s="287">
-        <v>4916.0882854686661</v>
+        <v>4939.2327501729887</v>
       </c>
       <c r="L25" s="287">
-        <v>4786.7829398119111</v>
+        <v>4807.58229035174</v>
       </c>
       <c r="M25" s="287">
-        <v>5071.3370190654559</v>
+        <v>5098.3408063979714</v>
       </c>
       <c r="N25" s="287">
         <v>5218</v>
@@ -6362,13 +6362,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="286">
-        <v>102.51439520703006</v>
+        <v>103.07591548634957</v>
       </c>
       <c r="Q25" s="286">
-        <v>2.7767448781998256</v>
+        <v>2.7748515669483775</v>
       </c>
       <c r="R25" s="286">
-        <v>-0.24075785261565658</v>
+        <v>-0.28106033696766369</v>
       </c>
     </row>
     <row r="26" outlineLevel="2">
@@ -6382,34 +6382,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D26" s="241">
-        <v>2940.9135511268851</v>
+        <v>2941.8987044009295</v>
       </c>
       <c r="E26" s="241">
-        <v>2940.9135511268851</v>
+        <v>2941.8987044009295</v>
       </c>
       <c r="F26" s="241">
-        <v>2940.9135511268851</v>
+        <v>2941.8987044009295</v>
       </c>
       <c r="G26" s="273">
-        <v>2927.7695119141667</v>
+        <v>2928.7491257414185</v>
       </c>
       <c r="H26" s="241">
-        <v>2888.6577525918287</v>
+        <v>2889.6210616166277</v>
       </c>
       <c r="I26" s="241">
-        <v>2850.1960904891234</v>
+        <v>2851.1434086317254</v>
       </c>
       <c r="J26" s="241">
-        <v>2775.1733280979006</v>
+        <v>2776.0895791110629</v>
       </c>
       <c r="K26" s="241">
-        <v>2702.6044392836952</v>
+        <v>2703.4907990931883</v>
       </c>
       <c r="L26" s="241">
-        <v>2632.3967745473951</v>
+        <v>2633.2543689499389</v>
       </c>
       <c r="M26" s="241">
-        <v>2732.9234786025504</v>
+        <v>2733.8225821849164</v>
       </c>
       <c r="N26" s="241">
         <v>2670</v>
@@ -6418,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="242">
-        <v>109.65428883573658</v>
+        <v>109.69097849218797</v>
       </c>
       <c r="Q26" s="242">
-        <v>2.6744656722210918</v>
+        <v>2.674689496431939</v>
       </c>
       <c r="R26" s="242">
-        <v>0.070689332664786289</v>
+        <v>0.070706846647285465</v>
       </c>
     </row>
     <row r="27" outlineLevel="2">
@@ -6438,34 +6438,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D27" s="241">
-        <v>1982.638349074304</v>
+        <v>1983.3024973489369</v>
       </c>
       <c r="E27" s="241">
-        <v>1982.638349074304</v>
+        <v>1983.3024973489369</v>
       </c>
       <c r="F27" s="241">
-        <v>1982.638349074304</v>
+        <v>1983.3024973489369</v>
       </c>
       <c r="G27" s="273">
-        <v>1973.777199043257</v>
+        <v>1974.4376128593856</v>
       </c>
       <c r="H27" s="241">
-        <v>1947.4097208484257</v>
+        <v>1948.0591426628946</v>
       </c>
       <c r="I27" s="241">
-        <v>1921.4805104421066</v>
+        <v>1922.1191518865542</v>
       </c>
       <c r="J27" s="241">
-        <v>1870.9033672570154</v>
+        <v>1871.5210645692614</v>
       </c>
       <c r="K27" s="241">
-        <v>1821.9805208654134</v>
+        <v>1822.5780668043949</v>
       </c>
       <c r="L27" s="241">
-        <v>1774.6495109308348</v>
+        <v>1775.2276644606266</v>
       </c>
       <c r="M27" s="241">
-        <v>1842.4203226534048</v>
+        <v>1843.0264598999418</v>
       </c>
       <c r="N27" s="241">
         <v>1800</v>
@@ -6474,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="242">
-        <v>109.65428883573651</v>
+        <v>109.69097849218809</v>
       </c>
       <c r="Q27" s="242">
-        <v>2.6744656722216806</v>
+        <v>2.6746894964319003</v>
       </c>
       <c r="R27" s="242">
-        <v>0.070689332699979748</v>
+        <v>0.070706846644141161</v>
       </c>
     </row>
     <row r="28" outlineLevel="2">
@@ -6494,34 +6494,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D28" s="287">
-        <v>4923.55190020119</v>
+        <v>4925.2012017498655</v>
       </c>
       <c r="E28" s="287">
-        <v>4923.55190020119</v>
+        <v>4925.2012017498655</v>
       </c>
       <c r="F28" s="287">
-        <v>4923.55190020119</v>
+        <v>4925.2012017498655</v>
       </c>
       <c r="G28" s="288">
-        <v>4901.5467109574238</v>
+        <v>4903.1867386008043</v>
       </c>
       <c r="H28" s="287">
-        <v>4836.0674734402537</v>
+        <v>4837.6802042795225</v>
       </c>
       <c r="I28" s="287">
-        <v>4771.67660093123</v>
+        <v>4773.2625605182784</v>
       </c>
       <c r="J28" s="287">
-        <v>4646.0766953549155</v>
+        <v>4647.6106436803238</v>
       </c>
       <c r="K28" s="287">
-        <v>4524.5849601491082</v>
+        <v>4526.0688658975832</v>
       </c>
       <c r="L28" s="287">
-        <v>4407.04628547823</v>
+        <v>4408.4820334105661</v>
       </c>
       <c r="M28" s="287">
-        <v>4575.3438012559554</v>
+        <v>4576.8490420848575</v>
       </c>
       <c r="N28" s="287">
         <v>4470</v>
@@ -6530,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="286">
-        <v>109.65428883573655</v>
+        <v>109.69097849218802</v>
       </c>
       <c r="Q28" s="286">
-        <v>2.6744656722213982</v>
+        <v>2.6746894964320393</v>
       </c>
       <c r="R28" s="286">
-        <v>0.070689332678494268</v>
+        <v>0.070706846646483024</v>
       </c>
     </row>
     <row r="29" outlineLevel="2">
@@ -6550,34 +6550,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D29" s="241">
-        <v>6385.203795817697</v>
+        <v>6385.3939821872746</v>
       </c>
       <c r="E29" s="241">
-        <v>6385.203795817697</v>
+        <v>6385.3939821872746</v>
       </c>
       <c r="F29" s="241">
-        <v>6385.203795817697</v>
+        <v>6385.3939821872746</v>
       </c>
       <c r="G29" s="273">
-        <v>6372.6182918184195</v>
+        <v>6372.80782615451</v>
       </c>
       <c r="H29" s="241">
-        <v>6325.2749296144766</v>
+        <v>6325.4621303139847</v>
       </c>
       <c r="I29" s="241">
-        <v>6278.5134662389864</v>
+        <v>6278.6983700401952</v>
       </c>
       <c r="J29" s="241">
-        <v>6186.6998200593362</v>
+        <v>6186.8802375387377</v>
       </c>
       <c r="K29" s="241">
-        <v>6097.1062117435758</v>
+        <v>6097.2822817802426</v>
       </c>
       <c r="L29" s="241">
-        <v>6009.6641236953183</v>
+        <v>6009.8359800604667</v>
       </c>
       <c r="M29" s="241">
-        <v>6117.4535251828711</v>
+        <v>6117.6307597298191</v>
       </c>
       <c r="N29" s="241">
         <v>6115</v>
@@ -6586,13 +6586,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="242">
-        <v>104.21289111722682</v>
+        <v>104.21599061577285</v>
       </c>
       <c r="Q29" s="242">
-        <v>1.485680780884902</v>
+        <v>1.4857101491468359</v>
       </c>
       <c r="R29" s="242">
-        <v>-0.0748353980355793</v>
+        <v>-0.074833124991184316</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
@@ -6662,34 +6662,34 @@
         <v>29.998631074606433</v>
       </c>
       <c r="D31" s="241">
-        <v>64863.136986247</v>
+        <v>64871.950674480417</v>
       </c>
       <c r="E31" s="241">
-        <v>64862.326601883316</v>
+        <v>64871.139608894031</v>
       </c>
       <c r="F31" s="241">
-        <v>64888.509567201632</v>
+        <v>64897.472411732648</v>
       </c>
       <c r="G31" s="273">
-        <v>64570.0672768656</v>
+        <v>64579.2251706868</v>
       </c>
       <c r="H31" s="241">
-        <v>63796.176141844138</v>
+        <v>63805.410054601991</v>
       </c>
       <c r="I31" s="241">
-        <v>62942.87019964635</v>
+        <v>62952.091340984829</v>
       </c>
       <c r="J31" s="241">
-        <v>61098.335076139083</v>
+        <v>61107.361141718706</v>
       </c>
       <c r="K31" s="241">
-        <v>59424.048764449595</v>
+        <v>59435.364271557584</v>
       </c>
       <c r="L31" s="241">
-        <v>56594.390114087611</v>
+        <v>56607.247706055721</v>
       </c>
       <c r="M31" s="241">
-        <v>61070.288209764054</v>
+        <v>61079.3757160492</v>
       </c>
       <c r="N31" s="241">
         <v>57801</v>
@@ -6698,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="242">
-        <v>111.71098644809882</v>
+        <v>111.72683028094116</v>
       </c>
       <c r="Q31" s="242">
-        <v>2.2625301659271142</v>
+        <v>2.2617815927512592</v>
       </c>
       <c r="R31" s="242">
-        <v>-0.58771468811121574</v>
+        <v>-0.5880292623774942</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
@@ -6774,34 +6774,34 @@
         <v>29.765913757700204</v>
       </c>
       <c r="D33" s="287">
-        <v>65622.553164986486</v>
+        <v>65631.3668532199</v>
       </c>
       <c r="E33" s="287">
-        <v>65621.7427806228</v>
+        <v>65630.555787633508</v>
       </c>
       <c r="F33" s="287">
-        <v>65647.835227410542</v>
+        <v>65656.798071941565</v>
       </c>
       <c r="G33" s="288">
-        <v>65328.215386677992</v>
+        <v>65337.373280499189</v>
       </c>
       <c r="H33" s="287">
-        <v>64551.083652452035</v>
+        <v>64560.317565209887</v>
       </c>
       <c r="I33" s="287">
-        <v>63694.559933582372</v>
+        <v>63703.781074920858</v>
       </c>
       <c r="J33" s="287">
-        <v>61843.656998362188</v>
+        <v>61852.683063941811</v>
       </c>
       <c r="K33" s="287">
-        <v>60163.092001428973</v>
+        <v>60174.407508536962</v>
       </c>
       <c r="L33" s="287">
-        <v>57327.242376591988</v>
+        <v>57340.0999685601</v>
       </c>
       <c r="M33" s="287">
-        <v>61811.413684981853</v>
+        <v>61820.501191267</v>
       </c>
       <c r="N33" s="287">
         <v>58503</v>
@@ -6810,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="286">
-        <v>111.66643657022374</v>
+        <v>111.68209028682151</v>
       </c>
       <c r="Q33" s="286">
-        <v>2.2459599398899583</v>
+        <v>2.24522237538606</v>
       </c>
       <c r="R33" s="286">
-        <v>-0.58217804616612112</v>
+        <v>-0.58248974627482508</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
@@ -6830,34 +6830,34 @@
         <v>29.15811088295688</v>
       </c>
       <c r="D34" s="287">
-        <v>67720.142866661481</v>
+        <v>67728.956554894874</v>
       </c>
       <c r="E34" s="287">
-        <v>67719.332482297774</v>
+        <v>67728.145489308488</v>
       </c>
       <c r="F34" s="287">
-        <v>67745.174907104418</v>
+        <v>67754.137751635441</v>
       </c>
       <c r="G34" s="288">
-        <v>67422.302544692546</v>
+        <v>67431.460438513735</v>
       </c>
       <c r="H34" s="287">
-        <v>66636.21992462968</v>
+        <v>66645.453837387526</v>
       </c>
       <c r="I34" s="287">
-        <v>65770.808358229042</v>
+        <v>65780.029499567521</v>
       </c>
       <c r="J34" s="287">
-        <v>63902.316837665028</v>
+        <v>63911.342903244644</v>
       </c>
       <c r="K34" s="287">
-        <v>62204.409432344975</v>
+        <v>62215.724939452964</v>
       </c>
       <c r="L34" s="287">
-        <v>59351.459665760078</v>
+        <v>59364.317257728188</v>
       </c>
       <c r="M34" s="287">
-        <v>63858.482483339831</v>
+        <v>63867.569989624979</v>
       </c>
       <c r="N34" s="287">
         <v>60442</v>
@@ -6866,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="286">
-        <v>111.54876169665555</v>
+        <v>111.56391323667936</v>
       </c>
       <c r="Q34" s="286">
-        <v>2.2021273846768135</v>
+        <v>2.2014186781901284</v>
       </c>
       <c r="R34" s="286">
-        <v>-0.56753218899544233</v>
+        <v>-0.56783619830137733</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
@@ -6886,34 +6886,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D35" s="241">
-        <v>8678.2385522552722</v>
+        <v>8678.4970377691752</v>
       </c>
       <c r="E35" s="241">
-        <v>8678.2385522552722</v>
+        <v>8678.4970377691752</v>
       </c>
       <c r="F35" s="241">
-        <v>8678.2385522552722</v>
+        <v>8678.4970377691752</v>
       </c>
       <c r="G35" s="273">
-        <v>8661.133380752728</v>
+        <v>8661.3909800768924</v>
       </c>
       <c r="H35" s="241">
-        <v>8596.788215866889</v>
+        <v>8597.04264350607</v>
       </c>
       <c r="I35" s="241">
-        <v>8533.2339195277655</v>
+        <v>8533.485225413604</v>
       </c>
       <c r="J35" s="241">
-        <v>8408.44843900462</v>
+        <v>8408.6936474545346</v>
       </c>
       <c r="K35" s="241">
-        <v>8286.6802495177326</v>
+        <v>8286.9195492846557</v>
       </c>
       <c r="L35" s="241">
-        <v>8167.8362276421713</v>
+        <v>8168.0698005368076</v>
       </c>
       <c r="M35" s="241">
-        <v>8314.3346276034226</v>
+        <v>8314.57551007597</v>
       </c>
       <c r="N35" s="241">
         <v>8311.0000000000109</v>
@@ -6922,13 +6922,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="242">
-        <v>104.21289111722676</v>
+        <v>104.21599061577284</v>
       </c>
       <c r="Q35" s="242">
-        <v>1.4856807808850041</v>
+        <v>1.4857101491462923</v>
       </c>
       <c r="R35" s="242">
-        <v>-0.0748353980275395</v>
+        <v>-0.074833124999501385</v>
       </c>
     </row>
     <row r="36" outlineLevel="2">
@@ -6942,34 +6942,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D36" s="241">
-        <v>563.86100568136624</v>
+        <v>563.87780055292365</v>
       </c>
       <c r="E36" s="241">
-        <v>563.86100568136624</v>
+        <v>563.87780055292365</v>
       </c>
       <c r="F36" s="241">
-        <v>563.86100568136624</v>
+        <v>563.87780055292365</v>
       </c>
       <c r="G36" s="273">
-        <v>562.74961203302394</v>
+        <v>562.76634932517265</v>
       </c>
       <c r="H36" s="241">
-        <v>558.568840881736</v>
+        <v>558.58537209641088</v>
       </c>
       <c r="I36" s="241">
-        <v>554.43945572674545</v>
+        <v>554.45578410820985</v>
       </c>
       <c r="J36" s="241">
-        <v>546.33162760949165</v>
+        <v>546.34755981535784</v>
       </c>
       <c r="K36" s="241">
-        <v>538.41984535429731</v>
+        <v>538.43539364862306</v>
       </c>
       <c r="L36" s="241">
-        <v>530.69805834758267</v>
+        <v>530.713234543361</v>
       </c>
       <c r="M36" s="241">
-        <v>540.21666452964018</v>
+        <v>540.2323156588875</v>
       </c>
       <c r="N36" s="241">
         <v>539.999999999999</v>
@@ -6978,13 +6978,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="242">
-        <v>104.21289111722685</v>
+        <v>104.21599061577291</v>
       </c>
       <c r="Q36" s="242">
-        <v>1.4856807808840939</v>
+        <v>1.4857101491473577</v>
       </c>
       <c r="R36" s="242">
-        <v>-0.074835398033567466</v>
+        <v>-0.0748331249941147</v>
       </c>
     </row>
     <row r="37" outlineLevel="2">
@@ -6998,34 +6998,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D37" s="287">
-        <v>9242.099557936639</v>
+        <v>9242.3748383221</v>
       </c>
       <c r="E37" s="287">
-        <v>9242.099557936639</v>
+        <v>9242.3748383221</v>
       </c>
       <c r="F37" s="287">
-        <v>9242.099557936639</v>
+        <v>9242.3748383221</v>
       </c>
       <c r="G37" s="288">
-        <v>9223.8829927857514</v>
+        <v>9224.1573294020654</v>
       </c>
       <c r="H37" s="287">
-        <v>9155.357056748624</v>
+        <v>9155.6280156024823</v>
       </c>
       <c r="I37" s="287">
-        <v>9087.6733752545115</v>
+        <v>9087.9410095218118</v>
       </c>
       <c r="J37" s="287">
-        <v>8954.7800666141138</v>
+        <v>8955.0412072698928</v>
       </c>
       <c r="K37" s="287">
-        <v>8825.10009487203</v>
+        <v>8825.35494293328</v>
       </c>
       <c r="L37" s="287">
-        <v>8698.5342859897537</v>
+        <v>8698.7830350801687</v>
       </c>
       <c r="M37" s="287">
-        <v>8854.5512921330628</v>
+        <v>8854.807825734857</v>
       </c>
       <c r="N37" s="287">
         <v>8851.00000000001</v>
@@ -7034,13 +7034,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="286">
-        <v>104.21289111722678</v>
+        <v>104.21599061577287</v>
       </c>
       <c r="Q37" s="286">
-        <v>1.4856807808849364</v>
+        <v>1.4857101491464064</v>
       </c>
       <c r="R37" s="286">
-        <v>-0.074835398025688726</v>
+        <v>-0.074833125000898226</v>
       </c>
     </row>
     <row r="38" outlineLevel="2">
@@ -7054,34 +7054,34 @@
         <v>23.049965776865161</v>
       </c>
       <c r="D38" s="287">
-        <v>88270.99812061699</v>
+        <v>88281.92657715411</v>
       </c>
       <c r="E38" s="287">
-        <v>88270.187736253312</v>
+        <v>88281.115511567739</v>
       </c>
       <c r="F38" s="287">
-        <v>88296.030161059942</v>
+        <v>88307.107773894677</v>
       </c>
       <c r="G38" s="288">
-        <v>87920.350540254149</v>
+        <v>87931.612332671109</v>
       </c>
       <c r="H38" s="287">
-        <v>86952.919384433029</v>
+        <v>86964.224187583517</v>
       </c>
       <c r="I38" s="287">
-        <v>85908.671800653756</v>
+        <v>85919.9314396478</v>
       </c>
       <c r="J38" s="287">
-        <v>83689.87341969338</v>
+        <v>83700.8749917336</v>
       </c>
       <c r="K38" s="287">
-        <v>81651.200699109686</v>
+        <v>81664.431030064079</v>
       </c>
       <c r="L38" s="287">
-        <v>78466.704360923381</v>
+        <v>78481.418306279389</v>
       </c>
       <c r="M38" s="287">
-        <v>83405.831101911739</v>
+        <v>83416.857617174508</v>
       </c>
       <c r="N38" s="287">
         <v>79878.000000000015</v>
@@ -7090,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="286">
-        <v>110.06829232110735</v>
+        <v>110.08239106220873</v>
       </c>
       <c r="Q38" s="286">
-        <v>2.1013671836292009</v>
+        <v>2.1008593280919832</v>
       </c>
       <c r="R38" s="286">
-        <v>-0.44455020966096148</v>
+        <v>-0.44478321133868753</v>
       </c>
     </row>
     <row r="39" outlineLevel="2">
@@ -7110,34 +7110,34 @@
         <v>2.9979466119096507</v>
       </c>
       <c r="D39" s="241">
-        <v>2194.0245236289543</v>
+        <v>2194.0893608444476</v>
       </c>
       <c r="E39" s="241">
-        <v>2194.0245236289543</v>
+        <v>2194.0893608444476</v>
       </c>
       <c r="F39" s="241">
-        <v>2194.0245236289543</v>
+        <v>2194.0893608444476</v>
       </c>
       <c r="G39" s="273">
-        <v>2189.6996655818207</v>
+        <v>2189.7642805014375</v>
       </c>
       <c r="H39" s="241">
-        <v>2173.4308835178717</v>
+        <v>2173.4947028442575</v>
       </c>
       <c r="I39" s="241">
-        <v>2157.3620675647194</v>
+        <v>2157.4251038231141</v>
       </c>
       <c r="J39" s="241">
-        <v>2125.81181962325</v>
+        <v>2125.8733263871363</v>
       </c>
       <c r="K39" s="241">
-        <v>2095.0244739022146</v>
+        <v>2095.0844985197573</v>
       </c>
       <c r="L39" s="241">
-        <v>2064.9764842799832</v>
+        <v>2065.0350723578608</v>
       </c>
       <c r="M39" s="241">
-        <v>2102.016796709499</v>
+        <v>2102.0772183471831</v>
       </c>
       <c r="N39" s="241">
         <v>2079</v>
@@ -7146,13 +7146,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="242">
-        <v>105.32465923914481</v>
+        <v>105.32776721988637</v>
       </c>
       <c r="Q39" s="242">
-        <v>1.4858033835043325</v>
+        <v>1.4858325206126586</v>
       </c>
       <c r="R39" s="242">
-        <v>-0.074824516977248359</v>
+        <v>-0.0748222617183937</v>
       </c>
     </row>
     <row r="40" outlineLevel="2">
@@ -7166,34 +7166,34 @@
         <v>3.6139630390143735</v>
       </c>
       <c r="D40" s="241">
-        <v>10134.811555331233</v>
+        <v>10132.287755437577</v>
       </c>
       <c r="E40" s="241">
-        <v>10134.811555331233</v>
+        <v>10132.287755437577</v>
       </c>
       <c r="F40" s="241">
-        <v>10134.811555331233</v>
+        <v>10132.287755437577</v>
       </c>
       <c r="G40" s="273">
-        <v>10062.261829635458</v>
+        <v>10059.765081261252</v>
       </c>
       <c r="H40" s="241">
-        <v>9910.4716538572</v>
+        <v>9908.0269998416788</v>
       </c>
       <c r="I40" s="241">
-        <v>9761.6857382158414</v>
+        <v>9759.2919425660639</v>
       </c>
       <c r="J40" s="241">
-        <v>9472.8508815009245</v>
+        <v>9470.5552237473457</v>
       </c>
       <c r="K40" s="241">
-        <v>9195.2233366342989</v>
+        <v>9193.021251048398</v>
       </c>
       <c r="L40" s="241">
-        <v>8928.2963678085416</v>
+        <v>8926.1835236946517</v>
       </c>
       <c r="M40" s="241">
-        <v>9350.4831285398159</v>
+        <v>9348.2220541907027</v>
       </c>
       <c r="N40" s="241">
         <v>8568.00000000001</v>
@@ -7202,13 +7202,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="242">
-        <v>117.44003069135675</v>
+        <v>117.41089030416948</v>
       </c>
       <c r="Q40" s="242">
-        <v>3.0295177841416412</v>
+        <v>3.02922636079779</v>
       </c>
       <c r="R40" s="242">
-        <v>0.10185423595260487</v>
+        <v>0.10183109505016461</v>
       </c>
     </row>
     <row r="41" outlineLevel="2">
@@ -7222,34 +7222,34 @@
         <v>4</v>
       </c>
       <c r="D41" s="241">
-        <v>5563.603265046354</v>
+        <v>5563.9342366458777</v>
       </c>
       <c r="E41" s="241">
-        <v>5563.603265046354</v>
+        <v>5563.9342366458777</v>
       </c>
       <c r="F41" s="241">
-        <v>5563.603265046354</v>
+        <v>5563.9342366458777</v>
       </c>
       <c r="G41" s="273">
-        <v>5550.4685168028691</v>
+        <v>5550.7979272724269</v>
       </c>
       <c r="H41" s="241">
-        <v>5507.9653699965556</v>
+        <v>5508.2902376699585</v>
       </c>
       <c r="I41" s="241">
-        <v>5466.0471252128809</v>
+        <v>5466.3675316586805</v>
       </c>
       <c r="J41" s="241">
-        <v>5383.9236318554713</v>
+        <v>5384.2353536011206</v>
       </c>
       <c r="K41" s="241">
-        <v>5304.0168276774857</v>
+        <v>5304.3201705675292</v>
       </c>
       <c r="L41" s="241">
-        <v>5226.248920839621</v>
+        <v>5226.54417788944</v>
       </c>
       <c r="M41" s="241">
-        <v>5327.5094016742378</v>
+        <v>5327.8158302344646</v>
       </c>
       <c r="N41" s="241">
         <v>5172</v>
@@ -7258,13 +7258,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="242">
-        <v>107.31764340299438</v>
+        <v>107.32401251493478</v>
       </c>
       <c r="Q41" s="242">
-        <v>1.5247057246176532</v>
+        <v>1.524779162446295</v>
       </c>
       <c r="R41" s="242">
-        <v>-0.0843825385905508</v>
+        <v>-0.0843765169682345</v>
       </c>
     </row>
     <row r="42" outlineLevel="2">
@@ -7278,34 +7278,34 @@
         <v>4</v>
       </c>
       <c r="D42" s="241">
-        <v>3694.727088439995</v>
+        <v>3693.422163192412</v>
       </c>
       <c r="E42" s="241">
-        <v>3694.727088439995</v>
+        <v>3693.422163192412</v>
       </c>
       <c r="F42" s="241">
-        <v>3694.727088439995</v>
+        <v>3693.422163192412</v>
       </c>
       <c r="G42" s="273">
-        <v>3684.9345897319</v>
+        <v>3683.6362379118355</v>
       </c>
       <c r="H42" s="241">
-        <v>3654.4188278693973</v>
+        <v>3653.13901080549</v>
       </c>
       <c r="I42" s="241">
-        <v>3624.3378463464787</v>
+        <v>3623.0762248315841</v>
       </c>
       <c r="J42" s="241">
-        <v>3565.448620446211</v>
+        <v>3564.2224016264659</v>
       </c>
       <c r="K42" s="241">
-        <v>3508.2053977390437</v>
+        <v>3507.0133106563349</v>
       </c>
       <c r="L42" s="241">
-        <v>3452.549281095784</v>
+        <v>3451.3901086960341</v>
       </c>
       <c r="M42" s="241">
-        <v>3526.4823364659392</v>
+        <v>3525.276940269664</v>
       </c>
       <c r="N42" s="241">
         <v>3501</v>
@@ -7314,13 +7314,13 @@
         <v>0</v>
       </c>
       <c r="P42" s="242">
-        <v>105.25377291436446</v>
+        <v>105.21668774383991</v>
       </c>
       <c r="Q42" s="242">
-        <v>1.624679515728036</v>
+        <v>1.62425682297332</v>
       </c>
       <c r="R42" s="242">
-        <v>-0.060875434510320896</v>
+        <v>-0.060910807884102573</v>
       </c>
     </row>
     <row r="43" outlineLevel="2">
@@ -7334,34 +7334,34 @@
         <v>4</v>
       </c>
       <c r="D43" s="287">
-        <v>9258.33035348635</v>
+        <v>9257.3563998382888</v>
       </c>
       <c r="E43" s="287">
-        <v>9258.33035348635</v>
+        <v>9257.3563998382888</v>
       </c>
       <c r="F43" s="287">
-        <v>9258.33035348635</v>
+        <v>9257.3563998382888</v>
       </c>
       <c r="G43" s="288">
-        <v>9235.40310653477</v>
+        <v>9234.43416518426</v>
       </c>
       <c r="H43" s="287">
-        <v>9162.384197865953</v>
+        <v>9161.42924847545</v>
       </c>
       <c r="I43" s="287">
-        <v>9090.3849715593587</v>
+        <v>9089.4437564902619</v>
       </c>
       <c r="J43" s="287">
-        <v>8949.3722523016822</v>
+        <v>8948.4577552275859</v>
       </c>
       <c r="K43" s="287">
-        <v>8812.22222541653</v>
+        <v>8811.3334812238627</v>
       </c>
       <c r="L43" s="287">
-        <v>8678.7982019354058</v>
+        <v>8677.9342865854742</v>
       </c>
       <c r="M43" s="287">
-        <v>8853.9917381401774</v>
+        <v>8853.0927705041286</v>
       </c>
       <c r="N43" s="287">
         <v>8673</v>
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="286">
-        <v>106.48452792038245</v>
+        <v>106.4733559919781</v>
       </c>
       <c r="Q43" s="286">
-        <v>1.5645953619924491</v>
+        <v>1.5644610215212527</v>
       </c>
       <c r="R43" s="286">
-        <v>-0.075003181791357024</v>
+        <v>-0.0750159936488804</v>
       </c>
     </row>
     <row r="44" outlineLevel="2">
@@ -7390,34 +7390,34 @@
         <v>4</v>
       </c>
       <c r="D44" s="241">
-        <v>1132.8063295930508</v>
+        <v>1132.4401740569158</v>
       </c>
       <c r="E44" s="241">
-        <v>1132.8063295930508</v>
+        <v>1132.4401740569158</v>
       </c>
       <c r="F44" s="241">
-        <v>1132.8063295930508</v>
+        <v>1132.4401740569158</v>
       </c>
       <c r="G44" s="273">
-        <v>1123.1112867081235</v>
+        <v>1122.749098398444</v>
       </c>
       <c r="H44" s="241">
-        <v>1104.0770811760449</v>
+        <v>1103.7224956850232</v>
       </c>
       <c r="I44" s="241">
-        <v>1085.4418680358465</v>
+        <v>1085.0947043991234</v>
       </c>
       <c r="J44" s="241">
-        <v>1049.330729692532</v>
+        <v>1048.9978858169807</v>
       </c>
       <c r="K44" s="241">
-        <v>1014.70494767067</v>
+        <v>1014.3857551861842</v>
       </c>
       <c r="L44" s="241">
-        <v>981.49536901727879</v>
+        <v>981.18919402910046</v>
       </c>
       <c r="M44" s="241">
-        <v>1035.9918237155227</v>
+        <v>1035.6639757932228</v>
       </c>
       <c r="N44" s="241">
         <v>957</v>
@@ -7426,13 +7426,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="242">
-        <v>117.35750122341939</v>
+        <v>117.31965500506206</v>
       </c>
       <c r="Q44" s="242">
-        <v>3.4029115395518583</v>
+        <v>3.4026450337876208</v>
       </c>
       <c r="R44" s="242">
-        <v>0.12286892797943297</v>
+        <v>0.12284473681439821</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
@@ -7502,34 +7502,34 @@
         <v>19.110198494182068</v>
       </c>
       <c r="D46" s="287">
-        <v>110960.97088265658</v>
+        <v>110968.10026733135</v>
       </c>
       <c r="E46" s="287">
-        <v>110960.16049829288</v>
+        <v>110967.28920174498</v>
       </c>
       <c r="F46" s="287">
-        <v>110986.00292309951</v>
+        <v>110993.28146407193</v>
       </c>
       <c r="G46" s="288">
-        <v>110500.82642871431</v>
+        <v>110508.3249580165</v>
       </c>
       <c r="H46" s="287">
-        <v>109273.28320085009</v>
+        <v>109280.89763442993</v>
       </c>
       <c r="I46" s="287">
-        <v>107973.54644602952</v>
+        <v>107981.18694692638</v>
       </c>
       <c r="J46" s="287">
-        <v>105257.23910281177</v>
+        <v>105264.75918291265</v>
       </c>
       <c r="K46" s="287">
-        <v>102738.37568273339</v>
+        <v>102748.25601604227</v>
       </c>
       <c r="L46" s="287">
-        <v>99090.270783964588</v>
+        <v>99101.760382946479</v>
       </c>
       <c r="M46" s="287">
-        <v>104718.31458901677</v>
+        <v>104725.91363600975</v>
       </c>
       <c r="N46" s="287">
         <v>100125.00000000003</v>
@@ -7538,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="286">
-        <v>110.3628728376672</v>
+        <v>110.37036200550958</v>
       </c>
       <c r="Q46" s="286">
-        <v>2.1426239839853127</v>
+        <v>2.1421563089688229</v>
       </c>
       <c r="R46" s="286">
-        <v>-0.35093546253741809</v>
+        <v>-0.35114782153745405</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
@@ -7835,37 +7835,37 @@
         <v>4.789609153372977</v>
       </c>
       <c r="C52" s="295">
-        <v>15.838466803559205</v>
+        <v>15.841204654346337</v>
       </c>
       <c r="D52" s="287">
-        <v>137933.60745040915</v>
+        <v>137969.04577423097</v>
       </c>
       <c r="E52" s="287">
-        <v>137931.04424439455</v>
+        <v>137966.47915260933</v>
       </c>
       <c r="F52" s="287">
-        <v>137944.83590063723</v>
+        <v>137981.26115935412</v>
       </c>
       <c r="G52" s="288">
-        <v>137411.13891592843</v>
+        <v>137447.93757340554</v>
       </c>
       <c r="H52" s="287">
-        <v>136102.01154921783</v>
+        <v>136138.327267624</v>
       </c>
       <c r="I52" s="287">
-        <v>134720.86905909615</v>
+        <v>134756.30432383277</v>
       </c>
       <c r="J52" s="287">
-        <v>131845.77243286473</v>
+        <v>131878.84724135624</v>
       </c>
       <c r="K52" s="287">
-        <v>129175.72665741605</v>
+        <v>129208.75145542926</v>
       </c>
       <c r="L52" s="287">
-        <v>125385.18633099881</v>
+        <v>125417.47528052052</v>
       </c>
       <c r="M52" s="287">
-        <v>131310.91429729623</v>
+        <v>131345.51713162172</v>
       </c>
       <c r="N52" s="287">
         <v>126904.00000000003</v>
@@ -7874,13 +7874,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="286">
-        <v>108.27959632157253</v>
+        <v>108.30859356159419</v>
       </c>
       <c r="Q52" s="286">
-        <v>1.8398877880891247</v>
+        <v>1.839653917351062</v>
       </c>
       <c r="R52" s="286">
-        <v>-0.31101699295647867</v>
+        <v>-0.31275201447379336</v>
       </c>
     </row>
     <row r="54">
@@ -8439,37 +8439,37 @@
         <v>37.888066832634657</v>
       </c>
       <c r="C66" s="295">
-        <v>12.180698151950717</v>
+        <v>12.186173853524982</v>
       </c>
       <c r="D66" s="287">
-        <v>22607.140233532125</v>
+        <v>22642.578557353943</v>
       </c>
       <c r="E66" s="287">
-        <v>22643.433306137751</v>
+        <v>22678.868214352518</v>
       </c>
       <c r="F66" s="287">
-        <v>22825.521061769981</v>
+        <v>22861.946320486888</v>
       </c>
       <c r="G66" s="288">
-        <v>22778.077404306416</v>
+        <v>22814.876061783525</v>
       </c>
       <c r="H66" s="287">
-        <v>22215.400525888494</v>
+        <v>22251.716244294686</v>
       </c>
       <c r="I66" s="287">
-        <v>21559.921414412103</v>
+        <v>21595.356679148725</v>
       </c>
       <c r="J66" s="287">
-        <v>20082.120876905767</v>
+        <v>20115.195685397281</v>
       </c>
       <c r="K66" s="287">
-        <v>18741.902354677492</v>
+        <v>18774.927152690692</v>
       </c>
       <c r="L66" s="287">
-        <v>16221.476392997469</v>
+        <v>16253.765342519173</v>
       </c>
       <c r="M66" s="287">
-        <v>19911.029518112147</v>
+        <v>19945.632352437646</v>
       </c>
       <c r="N66" s="287">
         <v>13646.000000000029</v>
@@ -8478,13 +8478,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="286">
-        <v>166.92127659611876</v>
+        <v>167.19094285346239</v>
       </c>
       <c r="Q66" s="286">
-        <v>4.412869545562307</v>
+        <v>4.4073105705909219</v>
       </c>
       <c r="R66" s="286">
-        <v>-2.7002182470834017</v>
+        <v>-2.7068172630260192</v>
       </c>
     </row>
   </sheetData>

--- a/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202012/jsliu__bank_test_&_city_(HF)(202012)_EVE.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: December, 2020        Evaluation Date: December 31, 2020</t>
   </si>
   <si>
-    <t>Printed on: 03/14/21 4:45:36 AM</t>
+    <t>Printed on: 04/08/21 4:49:00 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -4878,19 +4878,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="253">
-        <v>22642.578557353943</v>
+        <v>22642.578556605604</v>
       </c>
       <c r="F10" s="249">
-        <v>-172.29750442958175</v>
+        <v>-172.2974811555614</v>
       </c>
       <c r="G10" s="249">
-        <v>-0.7551980732351723</v>
+        <v>-0.75519797201786165</v>
       </c>
       <c r="H10" s="249">
-        <v>16.411346784557519</v>
+        <v>16.411346784104136</v>
       </c>
       <c r="I10" s="249">
-        <v>-18.757529792116269</v>
+        <v>-18.757528379818517</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4898,19 +4898,19 @@
         <v>16</v>
       </c>
       <c r="E11" s="253">
-        <v>22678.868214352518</v>
+        <v>22678.868213604183</v>
       </c>
       <c r="F11" s="249">
-        <v>-136.00784743100667</v>
+        <v>-136.00782415698268</v>
       </c>
       <c r="G11" s="249">
-        <v>-0.59613669196664665</v>
+        <v>-0.59613659058184032</v>
       </c>
       <c r="H11" s="249">
-        <v>16.437955330632644</v>
+        <v>16.437955330179403</v>
       </c>
       <c r="I11" s="249">
-        <v>-16.09667518460385</v>
+        <v>-16.096673772291886</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4918,19 +4918,19 @@
         <v>17</v>
       </c>
       <c r="E12" s="253">
-        <v>22861.946320486888</v>
+        <v>22861.946317598118</v>
       </c>
       <c r="F12" s="249">
-        <v>47.070258703362924</v>
+        <v>47.070279836952977</v>
       </c>
       <c r="G12" s="249">
-        <v>0.20631389176033624</v>
+        <v>0.20631398460831613</v>
       </c>
       <c r="H12" s="249">
-        <v>16.568877634828759</v>
+        <v>16.568877633082046</v>
       </c>
       <c r="I12" s="249">
-        <v>-3.0044447649923116</v>
+        <v>-3.0044434820275474</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -4938,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="265">
-        <v>22814.876061783525</v>
+        <v>22814.876037761165</v>
       </c>
       <c r="F13" s="266">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="266">
-        <v>16.598922082478683</v>
+        <v>16.598922067902322</v>
       </c>
       <c r="I13" s="266">
         <v>0</v>
@@ -4958,19 +4958,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="253">
-        <v>22251.716244294686</v>
+        <v>22251.716220670598</v>
       </c>
       <c r="F14" s="249">
-        <v>-563.1598174888386</v>
+        <v>-563.15981709056723</v>
       </c>
       <c r="G14" s="249">
-        <v>-2.4683886774742105</v>
+        <v>-2.4683886783275741</v>
       </c>
       <c r="H14" s="249">
-        <v>16.344931431801513</v>
+        <v>16.344931417284844</v>
       </c>
       <c r="I14" s="249">
-        <v>-25.39906506771694</v>
+        <v>-25.399065061747756</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -4978,19 +4978,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="253">
-        <v>21595.356679148725</v>
+        <v>21595.356655917312</v>
       </c>
       <c r="F15" s="249">
-        <v>-1219.5193826348004</v>
+        <v>-1219.5193818438529</v>
       </c>
       <c r="G15" s="249">
-        <v>-5.345281645766109</v>
+        <v>-5.3452816479274849</v>
       </c>
       <c r="H15" s="249">
-        <v>16.025488965067595</v>
+        <v>16.025488950590745</v>
       </c>
       <c r="I15" s="249">
-        <v>-57.343311741108714</v>
+        <v>-57.343311731157655</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -4998,19 +4998,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="253">
-        <v>20115.195685397281</v>
+        <v>20115.195662934515</v>
       </c>
       <c r="F16" s="249">
-        <v>-2699.6803763862445</v>
+        <v>-2699.68037482665</v>
       </c>
       <c r="G16" s="249">
-        <v>-11.832982870805042</v>
+        <v>-11.832982876428423</v>
       </c>
       <c r="H16" s="249">
-        <v>15.252783980272238</v>
+        <v>15.252783965837347</v>
       </c>
       <c r="I16" s="249">
-        <v>-134.61381022064444</v>
+        <v>-134.61381020649745</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -5018,19 +5018,19 @@
         <v>22</v>
       </c>
       <c r="E17" s="253">
-        <v>18774.927152690692</v>
+        <v>18774.927130974567</v>
       </c>
       <c r="F17" s="249">
-        <v>-4039.9489090928328</v>
+        <v>-4039.9489067865979</v>
       </c>
       <c r="G17" s="249">
-        <v>-17.707520734070624</v>
+        <v>-17.707520742606849</v>
       </c>
       <c r="H17" s="249">
-        <v>14.530693115757821</v>
+        <v>14.530693101392988</v>
       </c>
       <c r="I17" s="249">
-        <v>-206.82289667208616</v>
+        <v>-206.82289665093339</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -5038,19 +5038,19 @@
         <v>23</v>
       </c>
       <c r="E18" s="253">
-        <v>16253.765342519173</v>
+        <v>16253.765321528006</v>
       </c>
       <c r="F18" s="249">
-        <v>-6561.1107192643522</v>
+        <v>-6561.1107162331591</v>
       </c>
       <c r="G18" s="249">
-        <v>-28.758037963899618</v>
+        <v>-28.758037980893647</v>
       </c>
       <c r="H18" s="249">
-        <v>12.95972934087891</v>
+        <v>12.959729326310951</v>
       </c>
       <c r="I18" s="249">
-        <v>-363.91927415997719</v>
+        <v>-363.91927415913705</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -5058,19 +5058,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="253">
-        <v>19945.632352437646</v>
+        <v>19945.632727172746</v>
       </c>
       <c r="F19" s="249">
-        <v>-2869.2437093458793</v>
+        <v>-2869.2433105884193</v>
       </c>
       <c r="G19" s="249">
-        <v>-12.576196783080748</v>
+        <v>-12.576195048526678</v>
       </c>
       <c r="H19" s="249">
-        <v>15.185620939350423</v>
+        <v>15.185621181329941</v>
       </c>
       <c r="I19" s="249">
-        <v>-141.33011431282588</v>
+        <v>-141.33008865723809</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -5103,7 +5103,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="267">
-        <v>0.16598922082478679</v>
+        <v>0.16598922067902322</v>
       </c>
       <c r="F22" s="254" t="s">
         <v>27</v>
@@ -5115,7 +5115,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="267">
-        <v>0.15252783980272239</v>
+        <v>0.15252783965837347</v>
       </c>
       <c r="F23" s="254" t="s">
         <v>29</v>
@@ -5139,7 +5139,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="268">
-        <v>4.4073105705909219</v>
+        <v>4.4073092946991252</v>
       </c>
       <c r="F25" s="254" t="s">
         <v>34</v>
@@ -5159,52 +5159,52 @@
     </row>
     <row r="29" ht="9.95" customHeight="1">
       <c r="H29" s="249">
-        <v>137969.04577423097</v>
+        <v>137969.04577348262</v>
       </c>
     </row>
     <row r="30" ht="9.95" customHeight="1">
       <c r="H30" s="249">
-        <v>137966.47915260933</v>
+        <v>137966.47915186096</v>
       </c>
     </row>
     <row r="31" ht="9.95" customHeight="1">
       <c r="H31" s="249">
-        <v>137981.26115935412</v>
+        <v>137981.26115646539</v>
       </c>
     </row>
     <row r="32" ht="9.95" customHeight="1">
       <c r="H32" s="249">
-        <v>137447.93757340554</v>
+        <v>137447.93754938318</v>
       </c>
     </row>
     <row r="33" ht="9.95" customHeight="1">
       <c r="H33" s="249">
-        <v>136138.327267624</v>
+        <v>136138.32724399993</v>
       </c>
     </row>
     <row r="34" ht="9.95" customHeight="1">
       <c r="H34" s="249">
-        <v>134756.30432383277</v>
+        <v>134756.30430060136</v>
       </c>
     </row>
     <row r="35" ht="9.95" customHeight="1">
       <c r="H35" s="249">
-        <v>131878.84724135624</v>
+        <v>131878.84721889347</v>
       </c>
     </row>
     <row r="36" ht="9.95" customHeight="1">
       <c r="H36" s="249">
-        <v>129208.75145542926</v>
+        <v>129208.75143371313</v>
       </c>
     </row>
     <row r="37" ht="9.95" customHeight="1">
       <c r="H37" s="249">
-        <v>125417.47528052052</v>
+        <v>125417.47525952934</v>
       </c>
     </row>
     <row r="38" ht="9.95" customHeight="1">
       <c r="H38" s="249">
-        <v>131345.51713162172</v>
+        <v>131345.51750635682</v>
       </c>
     </row>
     <row r="39" ht="9.95" customHeight="1">
@@ -5408,34 +5408,34 @@
         <v>15.841204654346337</v>
       </c>
       <c r="D7" s="277">
-        <v>137969.04577423097</v>
+        <v>137969.04577348262</v>
       </c>
       <c r="E7" s="277">
-        <v>137966.47915260933</v>
+        <v>137966.47915186096</v>
       </c>
       <c r="F7" s="277">
-        <v>137981.26115935412</v>
+        <v>137981.26115646539</v>
       </c>
       <c r="G7" s="278">
-        <v>137447.93757340554</v>
+        <v>137447.93754938318</v>
       </c>
       <c r="H7" s="277">
-        <v>136138.327267624</v>
+        <v>136138.32724399993</v>
       </c>
       <c r="I7" s="277">
-        <v>134756.30432383277</v>
+        <v>134756.30430060136</v>
       </c>
       <c r="J7" s="277">
-        <v>131878.84724135624</v>
+        <v>131878.84721889347</v>
       </c>
       <c r="K7" s="277">
-        <v>129208.75145542926</v>
+        <v>129208.75143371313</v>
       </c>
       <c r="L7" s="277">
-        <v>125417.47528052052</v>
+        <v>125417.47525952934</v>
       </c>
       <c r="M7" s="277">
-        <v>131345.51713162172</v>
+        <v>131345.51750635682</v>
       </c>
       <c r="N7" s="277">
         <v>126904.00000000003</v>
@@ -5444,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="275">
-        <v>108.30859356159419</v>
+        <v>108.30859354266465</v>
       </c>
       <c r="Q7" s="275">
-        <v>1.839653917351062</v>
+        <v>1.8396537051179505</v>
       </c>
       <c r="R7" s="275">
-        <v>-0.31275201447379336</v>
+        <v>-0.31275625400063167</v>
       </c>
     </row>
     <row r="8">
@@ -5464,34 +5464,34 @@
         <v>15.841204654346337</v>
       </c>
       <c r="D8" s="277">
-        <v>137969.04577423097</v>
+        <v>137969.04577348262</v>
       </c>
       <c r="E8" s="277">
-        <v>137966.47915260933</v>
+        <v>137966.47915186096</v>
       </c>
       <c r="F8" s="277">
-        <v>137981.26115935412</v>
+        <v>137981.26115646539</v>
       </c>
       <c r="G8" s="278">
-        <v>137447.93757340554</v>
+        <v>137447.93754938318</v>
       </c>
       <c r="H8" s="277">
-        <v>136138.327267624</v>
+        <v>136138.32724399993</v>
       </c>
       <c r="I8" s="277">
-        <v>134756.30432383277</v>
+        <v>134756.30430060136</v>
       </c>
       <c r="J8" s="277">
-        <v>131878.84724135624</v>
+        <v>131878.84721889347</v>
       </c>
       <c r="K8" s="277">
-        <v>129208.75145542926</v>
+        <v>129208.75143371313</v>
       </c>
       <c r="L8" s="277">
-        <v>125417.47528052052</v>
+        <v>125417.47525952934</v>
       </c>
       <c r="M8" s="277">
-        <v>131345.51713162172</v>
+        <v>131345.51750635682</v>
       </c>
       <c r="N8" s="277">
         <v>126904.00000000003</v>
@@ -5500,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="275">
-        <v>108.30859356159419</v>
+        <v>108.30859354266465</v>
       </c>
       <c r="Q8" s="275">
-        <v>1.839653917351062</v>
+        <v>1.8396537051179505</v>
       </c>
       <c r="R8" s="275">
-        <v>-0.31275201447379336</v>
+        <v>-0.31275625400063167</v>
       </c>
     </row>
     <row r="9">
@@ -5576,34 +5576,34 @@
         <v>12.186173853524982</v>
       </c>
       <c r="D10" s="282">
-        <v>22642.578557353943</v>
+        <v>22642.578556605604</v>
       </c>
       <c r="E10" s="282">
-        <v>22678.868214352518</v>
+        <v>22678.868213604183</v>
       </c>
       <c r="F10" s="282">
-        <v>22861.946320486888</v>
+        <v>22861.946317598118</v>
       </c>
       <c r="G10" s="283">
-        <v>22814.876061783525</v>
+        <v>22814.876037761165</v>
       </c>
       <c r="H10" s="282">
-        <v>22251.716244294686</v>
+        <v>22251.716220670598</v>
       </c>
       <c r="I10" s="282">
-        <v>21595.356679148725</v>
+        <v>21595.356655917312</v>
       </c>
       <c r="J10" s="282">
-        <v>20115.195685397281</v>
+        <v>20115.195662934515</v>
       </c>
       <c r="K10" s="282">
-        <v>18774.927152690692</v>
+        <v>18774.927130974567</v>
       </c>
       <c r="L10" s="282">
-        <v>16253.765342519173</v>
+        <v>16253.765321528006</v>
       </c>
       <c r="M10" s="282">
-        <v>19945.632352437646</v>
+        <v>19945.632727172746</v>
       </c>
       <c r="N10" s="282">
         <v>13646.000000000029</v>
@@ -5612,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="280">
-        <v>167.19094285346239</v>
+        <v>167.19094267742281</v>
       </c>
       <c r="Q10" s="280">
-        <v>4.4073105705909219</v>
+        <v>4.4073092946991252</v>
       </c>
       <c r="R10" s="280">
-        <v>-2.7068172630260192</v>
+        <v>-2.7068428065060739</v>
       </c>
     </row>
     <row r="12">
@@ -6606,34 +6606,34 @@
         <v>9.9986310746064344</v>
       </c>
       <c r="D30" s="241">
-        <v>2097.5897016749941</v>
+        <v>2097.589701125567</v>
       </c>
       <c r="E30" s="241">
-        <v>2097.5897016749941</v>
+        <v>2097.589701125567</v>
       </c>
       <c r="F30" s="241">
-        <v>2097.3396796938746</v>
+        <v>2097.3396775729598</v>
       </c>
       <c r="G30" s="273">
-        <v>2094.0871580145531</v>
+        <v>2094.0871403775368</v>
       </c>
       <c r="H30" s="241">
-        <v>2085.13627217764</v>
+        <v>2085.1362548330435</v>
       </c>
       <c r="I30" s="241">
-        <v>2076.2484246466647</v>
+        <v>2076.2484075903571</v>
       </c>
       <c r="J30" s="241">
-        <v>2058.6598393028403</v>
+        <v>2058.6598228108614</v>
       </c>
       <c r="K30" s="241">
-        <v>2041.3174309159963</v>
+        <v>2041.3174149721892</v>
       </c>
       <c r="L30" s="241">
-        <v>2024.2172891680878</v>
+        <v>2024.2172737565379</v>
       </c>
       <c r="M30" s="241">
-        <v>2047.0687983579826</v>
+        <v>2047.0690734853272</v>
       </c>
       <c r="N30" s="241">
         <v>1939</v>
@@ -6642,13 +6642,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="242">
-        <v>107.99830624108061</v>
+        <v>107.9983053314872</v>
       </c>
       <c r="Q30" s="242">
-        <v>0.83470454511179437</v>
+        <v>0.8346943092300142</v>
       </c>
       <c r="R30" s="242">
-        <v>-0.11063252845605096</v>
+        <v>-0.11083682757166431</v>
       </c>
     </row>
     <row r="31" outlineLevel="2">
@@ -6718,34 +6718,34 @@
         <v>9.9986310746064344</v>
       </c>
       <c r="D32" s="241">
-        <v>759.41617873947871</v>
+        <v>759.41617854056153</v>
       </c>
       <c r="E32" s="241">
-        <v>759.41617873947871</v>
+        <v>759.41617854056153</v>
       </c>
       <c r="F32" s="241">
-        <v>759.32566020892091</v>
+        <v>759.3256594410617</v>
       </c>
       <c r="G32" s="273">
-        <v>758.148109812388</v>
+        <v>758.14810342704129</v>
       </c>
       <c r="H32" s="241">
-        <v>754.90751060789466</v>
+        <v>754.90750432841446</v>
       </c>
       <c r="I32" s="241">
-        <v>751.68973393603039</v>
+        <v>751.68972776092437</v>
       </c>
       <c r="J32" s="241">
-        <v>745.32192222310232</v>
+        <v>745.321916252307</v>
       </c>
       <c r="K32" s="241">
-        <v>739.04323697938571</v>
+        <v>739.04323120705351</v>
       </c>
       <c r="L32" s="241">
-        <v>732.85226250438234</v>
+        <v>732.852256924752</v>
       </c>
       <c r="M32" s="241">
-        <v>741.12547521779686</v>
+        <v>741.12557482552882</v>
       </c>
       <c r="N32" s="241">
         <v>702</v>
@@ -6754,13 +6754,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="242">
-        <v>107.99830624108091</v>
+        <v>107.99830533148736</v>
       </c>
       <c r="Q32" s="242">
-        <v>0.83470454511139691</v>
+        <v>0.83469430923052867</v>
       </c>
       <c r="R32" s="242">
-        <v>-0.11063252851533363</v>
+        <v>-0.11083682754033479</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
@@ -6774,34 +6774,34 @@
         <v>29.765913757700204</v>
       </c>
       <c r="D33" s="287">
-        <v>65631.3668532199</v>
+        <v>65631.366853020969</v>
       </c>
       <c r="E33" s="287">
-        <v>65630.555787633508</v>
+        <v>65630.5557874346</v>
       </c>
       <c r="F33" s="287">
-        <v>65656.798071941565</v>
+        <v>65656.798071173718</v>
       </c>
       <c r="G33" s="288">
-        <v>65337.373280499189</v>
+        <v>65337.373274113845</v>
       </c>
       <c r="H33" s="287">
-        <v>64560.317565209887</v>
+        <v>64560.3175589304</v>
       </c>
       <c r="I33" s="287">
-        <v>63703.781074920858</v>
+        <v>63703.781068745753</v>
       </c>
       <c r="J33" s="287">
-        <v>61852.683063941811</v>
+        <v>61852.683057971015</v>
       </c>
       <c r="K33" s="287">
-        <v>60174.407508536962</v>
+        <v>60174.40750276464</v>
       </c>
       <c r="L33" s="287">
-        <v>57340.0999685601</v>
+        <v>57340.099962980479</v>
       </c>
       <c r="M33" s="287">
-        <v>61820.501191267</v>
+        <v>61820.501290874738</v>
       </c>
       <c r="N33" s="287">
         <v>58503</v>
@@ -6810,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="286">
-        <v>111.68209028682151</v>
+        <v>111.68209027590696</v>
       </c>
       <c r="Q33" s="286">
-        <v>2.24522237538606</v>
+        <v>2.2452222567509326</v>
       </c>
       <c r="R33" s="286">
-        <v>-0.58248974627482508</v>
+        <v>-0.5824921169237971</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
@@ -6830,34 +6830,34 @@
         <v>29.15811088295688</v>
       </c>
       <c r="D34" s="287">
-        <v>67728.956554894874</v>
+        <v>67728.956554146542</v>
       </c>
       <c r="E34" s="287">
-        <v>67728.145489308488</v>
+        <v>67728.145488560156</v>
       </c>
       <c r="F34" s="287">
-        <v>67754.137751635441</v>
+        <v>67754.137748746667</v>
       </c>
       <c r="G34" s="288">
-        <v>67431.460438513735</v>
+        <v>67431.46041449139</v>
       </c>
       <c r="H34" s="287">
-        <v>66645.453837387526</v>
+        <v>66645.453813763452</v>
       </c>
       <c r="I34" s="287">
-        <v>65780.029499567521</v>
+        <v>65780.0294763361</v>
       </c>
       <c r="J34" s="287">
-        <v>63911.342903244644</v>
+        <v>63911.342880781871</v>
       </c>
       <c r="K34" s="287">
-        <v>62215.724939452964</v>
+        <v>62215.724917736828</v>
       </c>
       <c r="L34" s="287">
-        <v>59364.317257728188</v>
+        <v>59364.317236737021</v>
       </c>
       <c r="M34" s="287">
-        <v>63867.569989624979</v>
+        <v>63867.570364360057</v>
       </c>
       <c r="N34" s="287">
         <v>60442</v>
@@ -6866,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="286">
-        <v>111.56391323667936</v>
+        <v>111.56391319693489</v>
       </c>
       <c r="Q34" s="286">
-        <v>2.2014186781901284</v>
+        <v>2.2014182457167273</v>
       </c>
       <c r="R34" s="286">
-        <v>-0.56783619830137733</v>
+        <v>-0.56784483997449664</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
@@ -7054,34 +7054,34 @@
         <v>23.049965776865161</v>
       </c>
       <c r="D38" s="287">
-        <v>88281.92657715411</v>
+        <v>88281.926576405778</v>
       </c>
       <c r="E38" s="287">
-        <v>88281.115511567739</v>
+        <v>88281.115510819393</v>
       </c>
       <c r="F38" s="287">
-        <v>88307.107773894677</v>
+        <v>88307.107771005918</v>
       </c>
       <c r="G38" s="288">
-        <v>87931.612332671109</v>
+        <v>87931.61230864875</v>
       </c>
       <c r="H38" s="287">
-        <v>86964.224187583517</v>
+        <v>86964.224163959443</v>
       </c>
       <c r="I38" s="287">
-        <v>85919.9314396478</v>
+        <v>85919.9314164164</v>
       </c>
       <c r="J38" s="287">
-        <v>83700.8749917336</v>
+        <v>83700.874969270822</v>
       </c>
       <c r="K38" s="287">
-        <v>81664.431030064079</v>
+        <v>81664.431008347921</v>
       </c>
       <c r="L38" s="287">
-        <v>78481.418306279389</v>
+        <v>78481.418285288208</v>
       </c>
       <c r="M38" s="287">
-        <v>83416.857617174508</v>
+        <v>83416.857991909608</v>
       </c>
       <c r="N38" s="287">
         <v>79878.000000000015</v>
@@ -7090,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="286">
-        <v>110.08239106220873</v>
+        <v>110.08239103213492</v>
       </c>
       <c r="Q38" s="286">
-        <v>2.1008593280919832</v>
+        <v>2.1008589964169393</v>
       </c>
       <c r="R38" s="286">
-        <v>-0.44478321133868753</v>
+        <v>-0.44478983827558755</v>
       </c>
     </row>
     <row r="39" outlineLevel="2">
@@ -7502,34 +7502,34 @@
         <v>19.110198494182068</v>
       </c>
       <c r="D46" s="287">
-        <v>110968.10026733135</v>
+        <v>110968.10026658302</v>
       </c>
       <c r="E46" s="287">
-        <v>110967.28920174498</v>
+        <v>110967.28920099663</v>
       </c>
       <c r="F46" s="287">
-        <v>110993.28146407193</v>
+        <v>110993.28146118314</v>
       </c>
       <c r="G46" s="288">
-        <v>110508.3249580165</v>
+        <v>110508.32493399414</v>
       </c>
       <c r="H46" s="287">
-        <v>109280.89763442993</v>
+        <v>109280.89761080584</v>
       </c>
       <c r="I46" s="287">
-        <v>107981.18694692638</v>
+        <v>107981.18692369496</v>
       </c>
       <c r="J46" s="287">
-        <v>105264.75918291265</v>
+        <v>105264.75916044987</v>
       </c>
       <c r="K46" s="287">
-        <v>102748.25601604227</v>
+        <v>102748.25599432614</v>
       </c>
       <c r="L46" s="287">
-        <v>99101.760382946479</v>
+        <v>99101.7603619553</v>
       </c>
       <c r="M46" s="287">
-        <v>104725.91363600975</v>
+        <v>104725.91401074483</v>
       </c>
       <c r="N46" s="287">
         <v>100125.00000000003</v>
@@ -7538,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="286">
-        <v>110.37036200550958</v>
+        <v>110.37036198151721</v>
       </c>
       <c r="Q46" s="286">
-        <v>2.1421563089688229</v>
+        <v>2.1421560450634871</v>
       </c>
       <c r="R46" s="286">
-        <v>-0.35114782153745405</v>
+        <v>-0.35115309457775912</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
@@ -7838,34 +7838,34 @@
         <v>15.841204654346337</v>
       </c>
       <c r="D52" s="287">
-        <v>137969.04577423097</v>
+        <v>137969.04577348262</v>
       </c>
       <c r="E52" s="287">
-        <v>137966.47915260933</v>
+        <v>137966.47915186096</v>
       </c>
       <c r="F52" s="287">
-        <v>137981.26115935412</v>
+        <v>137981.26115646539</v>
       </c>
       <c r="G52" s="288">
-        <v>137447.93757340554</v>
+        <v>137447.93754938318</v>
       </c>
       <c r="H52" s="287">
-        <v>136138.327267624</v>
+        <v>136138.32724399993</v>
       </c>
       <c r="I52" s="287">
-        <v>134756.30432383277</v>
+        <v>134756.30430060136</v>
       </c>
       <c r="J52" s="287">
-        <v>131878.84724135624</v>
+        <v>131878.84721889347</v>
       </c>
       <c r="K52" s="287">
-        <v>129208.75145542926</v>
+        <v>129208.75143371313</v>
       </c>
       <c r="L52" s="287">
-        <v>125417.47528052052</v>
+        <v>125417.47525952934</v>
       </c>
       <c r="M52" s="287">
-        <v>131345.51713162172</v>
+        <v>131345.51750635682</v>
       </c>
       <c r="N52" s="287">
         <v>126904.00000000003</v>
@@ -7874,13 +7874,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="286">
-        <v>108.30859356159419</v>
+        <v>108.30859354266465</v>
       </c>
       <c r="Q52" s="286">
-        <v>1.839653917351062</v>
+        <v>1.8396537051179505</v>
       </c>
       <c r="R52" s="286">
-        <v>-0.31275201447379336</v>
+        <v>-0.31275625400063167</v>
       </c>
     </row>
     <row r="54">
@@ -8442,34 +8442,34 @@
         <v>12.186173853524982</v>
       </c>
       <c r="D66" s="287">
-        <v>22642.578557353943</v>
+        <v>22642.578556605604</v>
       </c>
       <c r="E66" s="287">
-        <v>22678.868214352518</v>
+        <v>22678.868213604183</v>
       </c>
       <c r="F66" s="287">
-        <v>22861.946320486888</v>
+        <v>22861.946317598118</v>
       </c>
       <c r="G66" s="288">
-        <v>22814.876061783525</v>
+        <v>22814.876037761165</v>
       </c>
       <c r="H66" s="287">
-        <v>22251.716244294686</v>
+        <v>22251.716220670598</v>
       </c>
       <c r="I66" s="287">
-        <v>21595.356679148725</v>
+        <v>21595.356655917312</v>
       </c>
       <c r="J66" s="287">
-        <v>20115.195685397281</v>
+        <v>20115.195662934515</v>
       </c>
       <c r="K66" s="287">
-        <v>18774.927152690692</v>
+        <v>18774.927130974567</v>
       </c>
       <c r="L66" s="287">
-        <v>16253.765342519173</v>
+        <v>16253.765321528006</v>
       </c>
       <c r="M66" s="287">
-        <v>19945.632352437646</v>
+        <v>19945.632727172746</v>
       </c>
       <c r="N66" s="287">
         <v>13646.000000000029</v>
@@ -8478,13 +8478,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="286">
-        <v>167.19094285346239</v>
+        <v>167.19094267742281</v>
       </c>
       <c r="Q66" s="286">
-        <v>4.4073105705909219</v>
+        <v>4.4073092946991252</v>
       </c>
       <c r="R66" s="286">
-        <v>-2.7068172630260192</v>
+        <v>-2.7068428065060739</v>
       </c>
     </row>
   </sheetData>
